--- a/data/social/S_1003.xlsx
+++ b/data/social/S_1003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-effort/data/social/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6B1876-D2F0-DF4F-83FA-207B2631EE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63F893A-F5EF-F045-9B17-684DE2AB13D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -986,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI78"/>
+  <dimension ref="A1:AI82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection sqref="A1:C78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1114,98 +1114,98 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>60.006</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-1263536832</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="1">
-        <v>43809</v>
-      </c>
-      <c r="T2" s="2">
-        <v>43809.784548611111</v>
-      </c>
-      <c r="U2" s="3">
-        <v>0.57621527777777781</v>
-      </c>
-      <c r="V2" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>21.21</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>6594</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>12</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.20730000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1221,98 +1221,98 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>60.006</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>9</v>
-      </c>
-      <c r="L3" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>-1263536832</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="1">
-        <v>43809</v>
-      </c>
-      <c r="T3" s="2">
-        <v>43809.784548611111</v>
-      </c>
-      <c r="U3" s="3">
-        <v>0.57621527777777781</v>
-      </c>
-      <c r="V3" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>9.91</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>2818</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>50</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.1811333</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -1328,98 +1328,98 @@
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>60.006</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>9</v>
-      </c>
-      <c r="L4" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>-1263536832</v>
-      </c>
-      <c r="P4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" s="1">
-        <v>43809</v>
-      </c>
-      <c r="T4" s="2">
-        <v>43809.784548611111</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0.57621527777777781</v>
-      </c>
-      <c r="V4" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>19.95</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>1137</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>50</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.1666667</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1435,101 +1435,101 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>32</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>60.006</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>9</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>-1263536832</v>
-      </c>
-      <c r="P5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S5" s="1">
-        <v>43809</v>
-      </c>
-      <c r="T5" s="2">
-        <v>43809.784548611111</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0.57621527777777781</v>
-      </c>
-      <c r="V5" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>22.47</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>478</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>88</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.1483333</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
@@ -1600,19 +1600,19 @@
         <v>38</v>
       </c>
       <c r="W6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>12.42</v>
+        <v>21.21</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6">
         <v>1</v>
       </c>
       <c r="AA6">
-        <v>75</v>
+        <v>6594</v>
       </c>
       <c r="AB6">
         <v>12</v>
@@ -1624,16 +1624,16 @@
         <v>28</v>
       </c>
       <c r="AE6">
-        <v>0.13443330000000001</v>
+        <v>0.20730000000000001</v>
       </c>
       <c r="AF6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG6">
         <v>1</v>
       </c>
       <c r="AH6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1707,10 +1707,10 @@
         <v>38</v>
       </c>
       <c r="W7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>13.67</v>
+        <v>9.91</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1719,31 +1719,31 @@
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>384</v>
+        <v>2818</v>
       </c>
       <c r="AB7">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD7" t="s">
         <v>28</v>
       </c>
       <c r="AE7">
-        <v>0.1489</v>
+        <v>0.1811333</v>
       </c>
       <c r="AF7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG7">
         <v>1</v>
       </c>
       <c r="AH7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AI7">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
@@ -1814,10 +1814,10 @@
         <v>38</v>
       </c>
       <c r="W8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>18.7</v>
+        <v>19.95</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="AA8">
-        <v>712</v>
+        <v>1137</v>
       </c>
       <c r="AB8">
         <v>50</v>
@@ -1838,16 +1838,16 @@
         <v>28</v>
       </c>
       <c r="AE8">
-        <v>0.1661</v>
+        <v>0.1666667</v>
       </c>
       <c r="AF8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AG8">
         <v>1</v>
       </c>
       <c r="AH8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -1921,10 +1921,10 @@
         <v>38</v>
       </c>
       <c r="W9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X9">
-        <v>12.42</v>
+        <v>22.47</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="AA9">
-        <v>710</v>
+        <v>478</v>
       </c>
       <c r="AB9">
         <v>88</v>
@@ -1945,16 +1945,16 @@
         <v>28</v>
       </c>
       <c r="AE9">
-        <v>0.16276669999999999</v>
+        <v>0.1483333</v>
       </c>
       <c r="AF9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AG9">
         <v>1</v>
       </c>
       <c r="AH9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AI9">
         <v>7</v>
@@ -2028,10 +2028,10 @@
         <v>38</v>
       </c>
       <c r="W10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X10">
-        <v>14.93</v>
+        <v>12.42</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -2040,31 +2040,31 @@
         <v>1</v>
       </c>
       <c r="AA10">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="AB10">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD10" t="s">
         <v>28</v>
       </c>
       <c r="AE10">
-        <v>0.16556670000000001</v>
+        <v>0.13443330000000001</v>
       </c>
       <c r="AF10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AG10">
         <v>1</v>
       </c>
       <c r="AH10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AI10">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
@@ -2135,10 +2135,10 @@
         <v>38</v>
       </c>
       <c r="W11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X11">
-        <v>17.440000000000001</v>
+        <v>13.67</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -2147,10 +2147,10 @@
         <v>1</v>
       </c>
       <c r="AA11">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="AB11">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC11" t="s">
         <v>40</v>
@@ -2159,16 +2159,16 @@
         <v>28</v>
       </c>
       <c r="AE11">
-        <v>0.17</v>
+        <v>0.1489</v>
       </c>
       <c r="AF11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AG11">
         <v>1</v>
       </c>
       <c r="AH11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AI11">
         <v>7</v>
@@ -2242,10 +2242,10 @@
         <v>38</v>
       </c>
       <c r="W12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="X12">
-        <v>27.49</v>
+        <v>18.7</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="AA12">
-        <v>346</v>
+        <v>712</v>
       </c>
       <c r="AB12">
         <v>50</v>
@@ -2266,16 +2266,16 @@
         <v>28</v>
       </c>
       <c r="AE12">
-        <v>0.17056669999999999</v>
+        <v>0.1661</v>
       </c>
       <c r="AF12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AG12">
         <v>1</v>
       </c>
       <c r="AH12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AI12">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>38</v>
       </c>
       <c r="W13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X13">
-        <v>16.190000000000001</v>
+        <v>12.42</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         <v>1</v>
       </c>
       <c r="AA13">
-        <v>664</v>
+        <v>710</v>
       </c>
       <c r="AB13">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC13" t="s">
         <v>40</v>
@@ -2373,16 +2373,16 @@
         <v>28</v>
       </c>
       <c r="AE13">
-        <v>0.18723329999999999</v>
+        <v>0.16276669999999999</v>
       </c>
       <c r="AF13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG13">
         <v>1</v>
       </c>
       <c r="AH13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AI13">
         <v>7</v>
@@ -2456,7 +2456,7 @@
         <v>38</v>
       </c>
       <c r="W14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="X14">
         <v>14.93</v>
@@ -2468,31 +2468,31 @@
         <v>1</v>
       </c>
       <c r="AA14">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="AB14">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD14" t="s">
         <v>28</v>
       </c>
       <c r="AE14">
-        <v>0.18</v>
+        <v>0.16556670000000001</v>
       </c>
       <c r="AF14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AG14">
         <v>1</v>
       </c>
       <c r="AH14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
@@ -2563,10 +2563,10 @@
         <v>38</v>
       </c>
       <c r="W15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="X15">
-        <v>9.91</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>1</v>
       </c>
       <c r="AA15">
-        <v>323</v>
+        <v>429</v>
       </c>
       <c r="AB15">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="s">
         <v>40</v>
@@ -2587,16 +2587,16 @@
         <v>28</v>
       </c>
       <c r="AE15">
-        <v>0.1833333</v>
+        <v>0.17</v>
       </c>
       <c r="AF15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AG15">
         <v>1</v>
       </c>
       <c r="AH15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AI15">
         <v>7</v>
@@ -2670,10 +2670,10 @@
         <v>38</v>
       </c>
       <c r="W16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X16">
-        <v>21.21</v>
+        <v>27.49</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -2682,10 +2682,10 @@
         <v>1</v>
       </c>
       <c r="AA16">
-        <v>507</v>
+        <v>346</v>
       </c>
       <c r="AB16">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC16" t="s">
         <v>39</v>
@@ -2694,16 +2694,16 @@
         <v>28</v>
       </c>
       <c r="AE16">
-        <v>0.1733333</v>
+        <v>0.17056669999999999</v>
       </c>
       <c r="AF16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG16">
         <v>1</v>
       </c>
       <c r="AH16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -2777,10 +2777,10 @@
         <v>38</v>
       </c>
       <c r="W17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="X17">
-        <v>8.65</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2789,31 +2789,31 @@
         <v>1</v>
       </c>
       <c r="AA17">
-        <v>449</v>
+        <v>664</v>
       </c>
       <c r="AB17">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD17" t="s">
         <v>28</v>
       </c>
       <c r="AE17">
-        <v>0.16500000000000001</v>
+        <v>0.18723329999999999</v>
       </c>
       <c r="AF17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AG17">
         <v>1</v>
       </c>
       <c r="AH17">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -2884,10 +2884,10 @@
         <v>38</v>
       </c>
       <c r="W18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="X18">
-        <v>24.98</v>
+        <v>14.93</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2896,31 +2896,31 @@
         <v>1</v>
       </c>
       <c r="AA18">
-        <v>475</v>
+        <v>135</v>
       </c>
       <c r="AB18">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD18" t="s">
         <v>28</v>
       </c>
       <c r="AE18">
-        <v>0.18390000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="AF18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG18">
         <v>1</v>
       </c>
       <c r="AH18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI18">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -2991,10 +2991,10 @@
         <v>38</v>
       </c>
       <c r="W19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="X19">
-        <v>16.190000000000001</v>
+        <v>9.91</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -3003,31 +3003,31 @@
         <v>1</v>
       </c>
       <c r="AA19">
-        <v>805</v>
+        <v>323</v>
       </c>
       <c r="AB19">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD19" t="s">
         <v>28</v>
       </c>
       <c r="AE19">
-        <v>0.17499999999999999</v>
+        <v>0.1833333</v>
       </c>
       <c r="AF19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG19">
         <v>1</v>
       </c>
       <c r="AH19">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
@@ -3098,10 +3098,10 @@
         <v>38</v>
       </c>
       <c r="W20">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X20">
-        <v>28.74</v>
+        <v>21.21</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -3110,31 +3110,31 @@
         <v>1</v>
       </c>
       <c r="AA20">
-        <v>356</v>
+        <v>507</v>
       </c>
       <c r="AB20">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD20" t="s">
         <v>28</v>
       </c>
       <c r="AE20">
-        <v>0.18779999999999999</v>
+        <v>0.1733333</v>
       </c>
       <c r="AF20">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG20">
         <v>1</v>
       </c>
       <c r="AH20">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AI20">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
@@ -3205,10 +3205,10 @@
         <v>38</v>
       </c>
       <c r="W21">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="X21">
-        <v>28.74</v>
+        <v>8.65</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         <v>1</v>
       </c>
       <c r="AA21">
-        <v>358</v>
+        <v>449</v>
       </c>
       <c r="AB21">
         <v>12</v>
@@ -3229,16 +3229,16 @@
         <v>28</v>
       </c>
       <c r="AE21">
-        <v>0.18279999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AF21">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AG21">
         <v>1</v>
       </c>
       <c r="AH21">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -3312,10 +3312,10 @@
         <v>38</v>
       </c>
       <c r="W22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X22">
-        <v>17.440000000000001</v>
+        <v>24.98</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -3324,10 +3324,10 @@
         <v>1</v>
       </c>
       <c r="AA22">
-        <v>638</v>
+        <v>475</v>
       </c>
       <c r="AB22">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC22" t="s">
         <v>40</v>
@@ -3336,16 +3336,16 @@
         <v>28</v>
       </c>
       <c r="AE22">
-        <v>0.20780000000000001</v>
+        <v>0.18390000000000001</v>
       </c>
       <c r="AF22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG22">
         <v>1</v>
       </c>
       <c r="AH22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI22">
         <v>7</v>
@@ -3419,19 +3419,19 @@
         <v>38</v>
       </c>
       <c r="W23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="X23">
-        <v>27.49</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <v>1</v>
       </c>
       <c r="AA23">
-        <v>957</v>
+        <v>805</v>
       </c>
       <c r="AB23">
         <v>12</v>
@@ -3443,16 +3443,16 @@
         <v>28</v>
       </c>
       <c r="AE23">
-        <v>0.19198000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="AF23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AG23">
         <v>1</v>
       </c>
       <c r="AH23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -3526,10 +3526,10 @@
         <v>38</v>
       </c>
       <c r="W24">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="X24">
-        <v>22.47</v>
+        <v>28.74</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -3538,31 +3538,31 @@
         <v>1</v>
       </c>
       <c r="AA24">
-        <v>1835</v>
+        <v>356</v>
       </c>
       <c r="AB24">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD24" t="s">
         <v>28</v>
       </c>
       <c r="AE24">
-        <v>0.19056670000000001</v>
+        <v>0.18779999999999999</v>
       </c>
       <c r="AF24">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG24">
         <v>1</v>
       </c>
       <c r="AH24">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
@@ -3633,7 +3633,7 @@
         <v>38</v>
       </c>
       <c r="W25">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="X25">
         <v>28.74</v>
@@ -3645,31 +3645,31 @@
         <v>1</v>
       </c>
       <c r="AA25">
-        <v>847</v>
+        <v>358</v>
       </c>
       <c r="AB25">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD25" t="s">
         <v>28</v>
       </c>
       <c r="AE25">
-        <v>0.1822</v>
+        <v>0.18279999999999999</v>
       </c>
       <c r="AF25">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AG25">
         <v>1</v>
       </c>
       <c r="AH25">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI25">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
@@ -3740,10 +3740,10 @@
         <v>38</v>
       </c>
       <c r="W26">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X26">
-        <v>18.7</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -3752,10 +3752,10 @@
         <v>1</v>
       </c>
       <c r="AA26">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="AB26">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC26" t="s">
         <v>40</v>
@@ -3764,16 +3764,16 @@
         <v>28</v>
       </c>
       <c r="AE26">
-        <v>0.2022333</v>
+        <v>0.20780000000000001</v>
       </c>
       <c r="AF26">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AG26">
         <v>1</v>
       </c>
       <c r="AH26">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI26">
         <v>7</v>
@@ -3847,22 +3847,22 @@
         <v>38</v>
       </c>
       <c r="W27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="X27">
-        <v>23.72</v>
+        <v>27.49</v>
       </c>
       <c r="Y27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>15426</v>
+        <v>957</v>
       </c>
       <c r="AB27">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC27" t="s">
         <v>39</v>
@@ -3871,16 +3871,16 @@
         <v>28</v>
       </c>
       <c r="AE27">
-        <v>-99</v>
+        <v>0.19198000000000001</v>
       </c>
       <c r="AF27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AG27">
         <v>1</v>
       </c>
       <c r="AH27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI27">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>38</v>
       </c>
       <c r="W28">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="X28">
-        <v>17.440000000000001</v>
+        <v>22.47</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -3966,31 +3966,31 @@
         <v>1</v>
       </c>
       <c r="AA28">
-        <v>262</v>
+        <v>1835</v>
       </c>
       <c r="AB28">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD28" t="s">
         <v>28</v>
       </c>
       <c r="AE28">
-        <v>0.1561333</v>
+        <v>0.19056670000000001</v>
       </c>
       <c r="AF28">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AG28">
         <v>1</v>
       </c>
       <c r="AH28">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI28">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
@@ -4061,10 +4061,10 @@
         <v>38</v>
       </c>
       <c r="W29">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X29">
-        <v>26.23</v>
+        <v>28.74</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -4073,31 +4073,31 @@
         <v>1</v>
       </c>
       <c r="AA29">
-        <v>658</v>
+        <v>847</v>
       </c>
       <c r="AB29">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD29" t="s">
         <v>28</v>
       </c>
       <c r="AE29">
-        <v>0.1594333</v>
+        <v>0.1822</v>
       </c>
       <c r="AF29">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AG29">
         <v>1</v>
       </c>
       <c r="AH29">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
@@ -4168,22 +4168,22 @@
         <v>38</v>
       </c>
       <c r="W30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="X30">
-        <v>12.42</v>
+        <v>18.7</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>1</v>
       </c>
       <c r="AA30">
-        <v>3834</v>
+        <v>644</v>
       </c>
       <c r="AB30">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC30" t="s">
         <v>40</v>
@@ -4192,19 +4192,19 @@
         <v>28</v>
       </c>
       <c r="AE30">
-        <v>0.19248000000000001</v>
+        <v>0.2022333</v>
       </c>
       <c r="AF30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AG30">
         <v>1</v>
       </c>
       <c r="AH30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI30">
-        <v>12.42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
@@ -4275,22 +4275,22 @@
         <v>38</v>
       </c>
       <c r="W31">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="X31">
-        <v>9.91</v>
+        <v>23.72</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>4548</v>
+        <v>15426</v>
       </c>
       <c r="AB31">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC31" t="s">
         <v>39</v>
@@ -4299,16 +4299,16 @@
         <v>28</v>
       </c>
       <c r="AE31">
-        <v>0.18279999999999999</v>
+        <v>-99</v>
       </c>
       <c r="AF31">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AG31">
         <v>1</v>
       </c>
       <c r="AH31">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI31">
         <v>0</v>
@@ -4382,43 +4382,43 @@
         <v>38</v>
       </c>
       <c r="W32">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="X32">
-        <v>21.21</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="Y32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
         <v>1</v>
       </c>
       <c r="AA32">
-        <v>1341</v>
+        <v>262</v>
       </c>
       <c r="AB32">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD32" t="s">
         <v>28</v>
       </c>
       <c r="AE32">
-        <v>0.19597000000000001</v>
+        <v>0.1561333</v>
       </c>
       <c r="AF32">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AG32">
         <v>1</v>
       </c>
       <c r="AH32">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
@@ -4489,10 +4489,10 @@
         <v>38</v>
       </c>
       <c r="W33">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="X33">
-        <v>23.72</v>
+        <v>26.23</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -4501,31 +4501,31 @@
         <v>1</v>
       </c>
       <c r="AA33">
-        <v>868</v>
+        <v>658</v>
       </c>
       <c r="AB33">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD33" t="s">
         <v>28</v>
       </c>
       <c r="AE33">
-        <v>0.1867</v>
+        <v>0.1594333</v>
       </c>
       <c r="AF33">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AG33">
         <v>1</v>
       </c>
       <c r="AH33">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI33">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.2">
@@ -4596,43 +4596,43 @@
         <v>38</v>
       </c>
       <c r="W34">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="X34">
-        <v>22.47</v>
+        <v>12.42</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34">
         <v>1</v>
       </c>
       <c r="AA34">
-        <v>1674</v>
+        <v>3834</v>
       </c>
       <c r="AB34">
         <v>50</v>
       </c>
       <c r="AC34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD34" t="s">
         <v>28</v>
       </c>
       <c r="AE34">
-        <v>0.18386669999999999</v>
+        <v>0.19248000000000001</v>
       </c>
       <c r="AF34">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AG34">
         <v>1</v>
       </c>
       <c r="AH34">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.2">
@@ -4703,10 +4703,10 @@
         <v>38</v>
       </c>
       <c r="W35">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X35">
-        <v>8.65</v>
+        <v>9.91</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -4715,31 +4715,31 @@
         <v>1</v>
       </c>
       <c r="AA35">
-        <v>821</v>
+        <v>4548</v>
       </c>
       <c r="AB35">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD35" t="s">
         <v>28</v>
       </c>
       <c r="AE35">
-        <v>0.18446670000000001</v>
+        <v>0.18279999999999999</v>
       </c>
       <c r="AF35">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AG35">
         <v>1</v>
       </c>
       <c r="AH35">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AI35">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.2">
@@ -4810,22 +4810,22 @@
         <v>38</v>
       </c>
       <c r="W36">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="X36">
-        <v>24.98</v>
+        <v>21.21</v>
       </c>
       <c r="Y36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z36">
         <v>1</v>
       </c>
       <c r="AA36">
-        <v>6289</v>
+        <v>1341</v>
       </c>
       <c r="AB36">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC36" t="s">
         <v>39</v>
@@ -4834,16 +4834,16 @@
         <v>28</v>
       </c>
       <c r="AE36">
-        <v>0.20646999999999999</v>
+        <v>0.19597000000000001</v>
       </c>
       <c r="AF36">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AG36">
         <v>1</v>
       </c>
       <c r="AH36">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="AI36">
         <v>0</v>
@@ -4917,10 +4917,10 @@
         <v>38</v>
       </c>
       <c r="W37">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="X37">
-        <v>26.23</v>
+        <v>23.72</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -4929,31 +4929,31 @@
         <v>1</v>
       </c>
       <c r="AA37">
-        <v>420</v>
+        <v>868</v>
       </c>
       <c r="AB37">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD37" t="s">
         <v>28</v>
       </c>
       <c r="AE37">
-        <v>0.18890000000000001</v>
+        <v>0.1867</v>
       </c>
       <c r="AF37">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AG37">
         <v>1</v>
       </c>
       <c r="AH37">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI37">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.2">
@@ -5024,10 +5024,10 @@
         <v>38</v>
       </c>
       <c r="W38">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="X38">
-        <v>26.23</v>
+        <v>22.47</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -5036,31 +5036,31 @@
         <v>1</v>
       </c>
       <c r="AA38">
-        <v>539</v>
+        <v>1674</v>
       </c>
       <c r="AB38">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD38" t="s">
         <v>28</v>
       </c>
       <c r="AE38">
-        <v>0.18723329999999999</v>
+        <v>0.18386669999999999</v>
       </c>
       <c r="AF38">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AG38">
         <v>1</v>
       </c>
       <c r="AH38">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="AI38">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.2">
@@ -5131,10 +5131,10 @@
         <v>38</v>
       </c>
       <c r="W39">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X39">
-        <v>14.93</v>
+        <v>8.65</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -5143,7 +5143,7 @@
         <v>1</v>
       </c>
       <c r="AA39">
-        <v>167</v>
+        <v>821</v>
       </c>
       <c r="AB39">
         <v>88</v>
@@ -5155,16 +5155,16 @@
         <v>28</v>
       </c>
       <c r="AE39">
-        <v>0.18390000000000001</v>
+        <v>0.18446670000000001</v>
       </c>
       <c r="AF39">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AG39">
         <v>1</v>
       </c>
       <c r="AH39">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AI39">
         <v>7</v>
@@ -5238,43 +5238,43 @@
         <v>38</v>
       </c>
       <c r="W40">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="X40">
         <v>24.98</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z40">
         <v>1</v>
       </c>
       <c r="AA40">
-        <v>437</v>
+        <v>6289</v>
       </c>
       <c r="AB40">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD40" t="s">
         <v>28</v>
       </c>
       <c r="AE40">
-        <v>0.16500000000000001</v>
+        <v>0.20646999999999999</v>
       </c>
       <c r="AF40">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AG40">
         <v>1</v>
       </c>
       <c r="AH40">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AI40">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.2">
@@ -5345,22 +5345,22 @@
         <v>38</v>
       </c>
       <c r="W41">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="X41">
-        <v>11.16</v>
+        <v>26.23</v>
       </c>
       <c r="Y41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA41">
-        <v>142</v>
+        <v>420</v>
       </c>
       <c r="AB41">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC41" t="s">
         <v>39</v>
@@ -5369,16 +5369,16 @@
         <v>28</v>
       </c>
       <c r="AE41">
-        <v>0.2120909</v>
+        <v>0.18890000000000001</v>
       </c>
       <c r="AF41">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AG41">
         <v>1</v>
       </c>
       <c r="AH41">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AI41">
         <v>0</v>
@@ -5452,43 +5452,43 @@
         <v>38</v>
       </c>
       <c r="W42">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="X42">
-        <v>19.95</v>
+        <v>26.23</v>
       </c>
       <c r="Y42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z42">
         <v>1</v>
       </c>
       <c r="AA42">
-        <v>6358</v>
+        <v>539</v>
       </c>
       <c r="AB42">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD42" t="s">
         <v>28</v>
       </c>
       <c r="AE42">
-        <v>0.18666669999999999</v>
+        <v>0.18723329999999999</v>
       </c>
       <c r="AF42">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG42">
         <v>1</v>
       </c>
       <c r="AH42">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AI42">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
@@ -5559,10 +5559,10 @@
         <v>38</v>
       </c>
       <c r="W43">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="X43">
-        <v>18.7</v>
+        <v>14.93</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -5571,31 +5571,31 @@
         <v>1</v>
       </c>
       <c r="AA43">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="AB43">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD43" t="s">
         <v>28</v>
       </c>
       <c r="AE43">
-        <v>0.1772</v>
+        <v>0.18390000000000001</v>
       </c>
       <c r="AF43">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AG43">
         <v>1</v>
       </c>
       <c r="AH43">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AI43">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
@@ -5666,10 +5666,10 @@
         <v>38</v>
       </c>
       <c r="W44">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="X44">
-        <v>8.65</v>
+        <v>24.98</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -5678,7 +5678,7 @@
         <v>1</v>
       </c>
       <c r="AA44">
-        <v>577</v>
+        <v>437</v>
       </c>
       <c r="AB44">
         <v>50</v>
@@ -5690,16 +5690,16 @@
         <v>28</v>
       </c>
       <c r="AE44">
-        <v>0.15609999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AF44">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AG44">
         <v>1</v>
       </c>
       <c r="AH44">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AI44">
         <v>7</v>
@@ -5773,22 +5773,22 @@
         <v>38</v>
       </c>
       <c r="W45">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="X45">
-        <v>13.67</v>
+        <v>11.16</v>
       </c>
       <c r="Y45">
         <v>1</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>809</v>
+        <v>142</v>
       </c>
       <c r="AB45">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC45" t="s">
         <v>39</v>
@@ -5797,16 +5797,16 @@
         <v>28</v>
       </c>
       <c r="AE45">
-        <v>0.20447000000000001</v>
+        <v>0.2120909</v>
       </c>
       <c r="AF45">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AG45">
         <v>1</v>
       </c>
       <c r="AH45">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AI45">
         <v>0</v>
@@ -5880,43 +5880,43 @@
         <v>38</v>
       </c>
       <c r="W46">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X46">
-        <v>11.16</v>
+        <v>19.95</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z46">
         <v>1</v>
       </c>
       <c r="AA46">
-        <v>3771</v>
+        <v>6358</v>
       </c>
       <c r="AB46">
         <v>12</v>
       </c>
       <c r="AC46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD46" t="s">
         <v>28</v>
       </c>
       <c r="AE46">
-        <v>0.2055333</v>
+        <v>0.18666669999999999</v>
       </c>
       <c r="AF46">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AG46">
         <v>1</v>
       </c>
       <c r="AH46">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI46">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
@@ -5987,40 +5987,40 @@
         <v>38</v>
       </c>
       <c r="W47">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="X47">
-        <v>19.95</v>
+        <v>18.7</v>
       </c>
       <c r="Y47">
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA47">
-        <v>223</v>
+        <v>313</v>
       </c>
       <c r="AB47">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD47" t="s">
         <v>28</v>
       </c>
       <c r="AE47">
-        <v>0.4375</v>
+        <v>0.1772</v>
       </c>
       <c r="AF47">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AG47">
         <v>1</v>
       </c>
       <c r="AH47">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AI47">
         <v>0</v>
@@ -6094,10 +6094,10 @@
         <v>38</v>
       </c>
       <c r="W48">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="X48">
-        <v>16.190000000000001</v>
+        <v>8.65</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -6106,10 +6106,10 @@
         <v>1</v>
       </c>
       <c r="AA48">
-        <v>379</v>
+        <v>577</v>
       </c>
       <c r="AB48">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC48" t="s">
         <v>40</v>
@@ -6118,16 +6118,16 @@
         <v>28</v>
       </c>
       <c r="AE48">
-        <v>0.19833329999999999</v>
+        <v>0.15609999999999999</v>
       </c>
       <c r="AF48">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AG48">
         <v>1</v>
       </c>
       <c r="AH48">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AI48">
         <v>7</v>
@@ -6201,22 +6201,22 @@
         <v>38</v>
       </c>
       <c r="W49">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="X49">
-        <v>23.72</v>
+        <v>13.67</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49">
         <v>1</v>
       </c>
       <c r="AA49">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="AB49">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC49" t="s">
         <v>39</v>
@@ -6225,16 +6225,16 @@
         <v>28</v>
       </c>
       <c r="AE49">
-        <v>0.16446669999999999</v>
+        <v>0.20447000000000001</v>
       </c>
       <c r="AF49">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AG49">
         <v>1</v>
       </c>
       <c r="AH49">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AI49">
         <v>0</v>
@@ -6308,22 +6308,22 @@
         <v>38</v>
       </c>
       <c r="W50">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="X50">
-        <v>27.49</v>
+        <v>11.16</v>
       </c>
       <c r="Y50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z50">
         <v>1</v>
       </c>
       <c r="AA50">
-        <v>7235</v>
+        <v>3771</v>
       </c>
       <c r="AB50">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC50" t="s">
         <v>40</v>
@@ -6332,16 +6332,16 @@
         <v>28</v>
       </c>
       <c r="AE50">
-        <v>0.17443330000000001</v>
+        <v>0.2055333</v>
       </c>
       <c r="AF50">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AG50">
         <v>1</v>
       </c>
       <c r="AH50">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AI50">
         <v>7</v>
@@ -6415,40 +6415,40 @@
         <v>38</v>
       </c>
       <c r="W51">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="X51">
-        <v>13.67</v>
+        <v>19.95</v>
       </c>
       <c r="Y51">
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>964</v>
+        <v>223</v>
       </c>
       <c r="AB51">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD51" t="s">
         <v>28</v>
       </c>
       <c r="AE51">
-        <v>0.16556670000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AF51">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AG51">
         <v>1</v>
       </c>
       <c r="AH51">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AI51">
         <v>0</v>
@@ -6522,22 +6522,22 @@
         <v>38</v>
       </c>
       <c r="W52">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="X52">
-        <v>11.16</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="Y52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA52">
-        <v>8441</v>
+        <v>379</v>
       </c>
       <c r="AB52">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC52" t="s">
         <v>40</v>
@@ -6546,19 +6546,19 @@
         <v>28</v>
       </c>
       <c r="AE52">
-        <v>0.21426529999999999</v>
+        <v>0.19833329999999999</v>
       </c>
       <c r="AF52">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AG52">
         <v>1</v>
       </c>
       <c r="AH52">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AI52">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
@@ -6629,10 +6629,10 @@
         <v>38</v>
       </c>
       <c r="W53">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="X53">
-        <v>18.07</v>
+        <v>23.72</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>1</v>
       </c>
       <c r="AA53">
-        <v>1999</v>
+        <v>840</v>
       </c>
       <c r="AB53">
         <v>12</v>
@@ -6653,16 +6653,16 @@
         <v>28</v>
       </c>
       <c r="AE53">
-        <v>0.19</v>
+        <v>0.16446669999999999</v>
       </c>
       <c r="AF53">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AG53">
         <v>1</v>
       </c>
       <c r="AH53">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AI53">
         <v>0</v>
@@ -6736,43 +6736,43 @@
         <v>38</v>
       </c>
       <c r="W54">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="X54">
-        <v>24.35</v>
+        <v>27.49</v>
       </c>
       <c r="Y54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z54">
         <v>1</v>
       </c>
       <c r="AA54">
-        <v>3974</v>
+        <v>7235</v>
       </c>
       <c r="AB54">
         <v>88</v>
       </c>
       <c r="AC54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD54" t="s">
         <v>28</v>
       </c>
       <c r="AE54">
-        <v>0.1789</v>
+        <v>0.17443330000000001</v>
       </c>
       <c r="AF54">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AG54">
         <v>1</v>
       </c>
       <c r="AH54">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
@@ -6843,22 +6843,22 @@
         <v>38</v>
       </c>
       <c r="W55">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X55">
-        <v>26.86</v>
+        <v>13.67</v>
       </c>
       <c r="Y55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA55">
-        <v>8378</v>
+        <v>964</v>
       </c>
       <c r="AB55">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC55" t="s">
         <v>39</v>
@@ -6867,16 +6867,16 @@
         <v>28</v>
       </c>
       <c r="AE55">
-        <v>0.21210100000000001</v>
+        <v>0.16556670000000001</v>
       </c>
       <c r="AF55">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AG55">
         <v>1</v>
       </c>
       <c r="AH55">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AI55">
         <v>0</v>
@@ -6950,22 +6950,22 @@
         <v>38</v>
       </c>
       <c r="W56">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X56">
-        <v>29.37</v>
+        <v>11.16</v>
       </c>
       <c r="Y56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>80</v>
+        <v>8441</v>
       </c>
       <c r="AB56">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC56" t="s">
         <v>40</v>
@@ -6974,19 +6974,19 @@
         <v>28</v>
       </c>
       <c r="AE56">
-        <v>0.1727667</v>
+        <v>0.21426529999999999</v>
       </c>
       <c r="AF56">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AG56">
         <v>1</v>
       </c>
       <c r="AH56">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AI56">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
@@ -7057,10 +7057,10 @@
         <v>38</v>
       </c>
       <c r="W57">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="X57">
-        <v>28.12</v>
+        <v>18.07</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -7069,7 +7069,7 @@
         <v>1</v>
       </c>
       <c r="AA57">
-        <v>2023</v>
+        <v>1999</v>
       </c>
       <c r="AB57">
         <v>12</v>
@@ -7081,16 +7081,16 @@
         <v>28</v>
       </c>
       <c r="AE57">
-        <v>0.17113329999999999</v>
+        <v>0.19</v>
       </c>
       <c r="AF57">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AG57">
         <v>1</v>
       </c>
       <c r="AH57">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AI57">
         <v>0</v>
@@ -7164,10 +7164,10 @@
         <v>38</v>
       </c>
       <c r="W58">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="X58">
-        <v>25.6</v>
+        <v>24.35</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -7176,31 +7176,31 @@
         <v>1</v>
       </c>
       <c r="AA58">
-        <v>2507</v>
+        <v>3974</v>
       </c>
       <c r="AB58">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD58" t="s">
         <v>28</v>
       </c>
       <c r="AE58">
-        <v>0.18833330000000001</v>
+        <v>0.1789</v>
       </c>
       <c r="AF58">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AG58">
         <v>1</v>
       </c>
       <c r="AH58">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AI58">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
@@ -7271,22 +7271,22 @@
         <v>38</v>
       </c>
       <c r="W59">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="X59">
-        <v>25.6</v>
+        <v>26.86</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>263</v>
+        <v>8378</v>
       </c>
       <c r="AB59">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC59" t="s">
         <v>39</v>
@@ -7295,16 +7295,16 @@
         <v>28</v>
       </c>
       <c r="AE59">
-        <v>0.17943329999999999</v>
+        <v>0.21210100000000001</v>
       </c>
       <c r="AF59">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AG59">
         <v>1</v>
       </c>
       <c r="AH59">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="AI59">
         <v>0</v>
@@ -7378,19 +7378,19 @@
         <v>38</v>
       </c>
       <c r="W60">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="X60">
-        <v>28.12</v>
+        <v>29.37</v>
       </c>
       <c r="Y60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA60">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB60">
         <v>88</v>
@@ -7402,19 +7402,19 @@
         <v>28</v>
       </c>
       <c r="AE60">
-        <v>-99</v>
+        <v>0.1727667</v>
       </c>
       <c r="AF60">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AG60">
         <v>1</v>
       </c>
       <c r="AH60">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AI60">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
@@ -7485,22 +7485,22 @@
         <v>38</v>
       </c>
       <c r="W61">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="X61">
-        <v>19.329999999999998</v>
+        <v>28.12</v>
       </c>
       <c r="Y61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA61">
-        <v>8340</v>
+        <v>2023</v>
       </c>
       <c r="AB61">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC61" t="s">
         <v>39</v>
@@ -7509,16 +7509,16 @@
         <v>28</v>
       </c>
       <c r="AE61">
-        <v>0.23330000000000001</v>
+        <v>0.17113329999999999</v>
       </c>
       <c r="AF61">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AG61">
         <v>1</v>
       </c>
       <c r="AH61">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AI61">
         <v>0</v>
@@ -7592,10 +7592,10 @@
         <v>38</v>
       </c>
       <c r="W62">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="X62">
-        <v>10.53</v>
+        <v>25.6</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -7604,10 +7604,10 @@
         <v>1</v>
       </c>
       <c r="AA62">
-        <v>3114</v>
+        <v>2507</v>
       </c>
       <c r="AB62">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC62" t="s">
         <v>40</v>
@@ -7616,16 +7616,16 @@
         <v>28</v>
       </c>
       <c r="AE62">
-        <v>0.17556669999999999</v>
+        <v>0.18833330000000001</v>
       </c>
       <c r="AF62">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AG62">
         <v>1</v>
       </c>
       <c r="AH62">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AI62">
         <v>7</v>
@@ -7699,10 +7699,10 @@
         <v>38</v>
       </c>
       <c r="W63">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="X63">
-        <v>13.05</v>
+        <v>25.6</v>
       </c>
       <c r="Y63">
         <v>0</v>
@@ -7711,10 +7711,10 @@
         <v>1</v>
       </c>
       <c r="AA63">
-        <v>44</v>
+        <v>263</v>
       </c>
       <c r="AB63">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC63" t="s">
         <v>39</v>
@@ -7723,16 +7723,16 @@
         <v>28</v>
       </c>
       <c r="AE63">
-        <v>0.215</v>
+        <v>0.17943329999999999</v>
       </c>
       <c r="AF63">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AG63">
         <v>1</v>
       </c>
       <c r="AH63">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AI63">
         <v>0</v>
@@ -7806,40 +7806,40 @@
         <v>38</v>
       </c>
       <c r="W64">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="X64">
-        <v>29.37</v>
+        <v>28.12</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="AB64">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD64" t="s">
         <v>28</v>
       </c>
       <c r="AE64">
-        <v>0.15890000000000001</v>
+        <v>-99</v>
       </c>
       <c r="AF64">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AG64">
         <v>1</v>
       </c>
       <c r="AH64">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AI64">
         <v>0</v>
@@ -7913,10 +7913,10 @@
         <v>38</v>
       </c>
       <c r="W65">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="X65">
-        <v>9.2799999999999994</v>
+        <v>19.329999999999998</v>
       </c>
       <c r="Y65">
         <v>2</v>
@@ -7925,28 +7925,28 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>21982</v>
+        <v>8340</v>
       </c>
       <c r="AB65">
         <v>50</v>
       </c>
       <c r="AC65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD65" t="s">
         <v>28</v>
       </c>
       <c r="AE65">
-        <v>0.87487499999999996</v>
+        <v>0.23330000000000001</v>
       </c>
       <c r="AF65">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AG65">
         <v>1</v>
       </c>
       <c r="AH65">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AI65">
         <v>0</v>
@@ -8020,10 +8020,10 @@
         <v>38</v>
       </c>
       <c r="W66">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="X66">
-        <v>13.05</v>
+        <v>10.53</v>
       </c>
       <c r="Y66">
         <v>0</v>
@@ -8032,10 +8032,10 @@
         <v>1</v>
       </c>
       <c r="AA66">
-        <v>515</v>
+        <v>3114</v>
       </c>
       <c r="AB66">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC66" t="s">
         <v>40</v>
@@ -8044,16 +8044,16 @@
         <v>28</v>
       </c>
       <c r="AE66">
-        <v>0.1867</v>
+        <v>0.17556669999999999</v>
       </c>
       <c r="AF66">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AG66">
         <v>1</v>
       </c>
       <c r="AH66">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AI66">
         <v>7</v>
@@ -8127,10 +8127,10 @@
         <v>38</v>
       </c>
       <c r="W67">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="X67">
-        <v>10.53</v>
+        <v>13.05</v>
       </c>
       <c r="Y67">
         <v>0</v>
@@ -8139,31 +8139,31 @@
         <v>1</v>
       </c>
       <c r="AA67">
-        <v>1343</v>
+        <v>44</v>
       </c>
       <c r="AB67">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD67" t="s">
         <v>28</v>
       </c>
       <c r="AE67">
-        <v>0.1733333</v>
+        <v>0.215</v>
       </c>
       <c r="AF67">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AG67">
         <v>1</v>
       </c>
       <c r="AH67">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AI67">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.2">
@@ -8234,10 +8234,10 @@
         <v>38</v>
       </c>
       <c r="W68">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="X68">
-        <v>21.84</v>
+        <v>29.37</v>
       </c>
       <c r="Y68">
         <v>0</v>
@@ -8246,31 +8246,31 @@
         <v>1</v>
       </c>
       <c r="AA68">
-        <v>324</v>
+        <v>403</v>
       </c>
       <c r="AB68">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD68" t="s">
         <v>28</v>
       </c>
       <c r="AE68">
-        <v>0.17499999999999999</v>
+        <v>0.15890000000000001</v>
       </c>
       <c r="AF68">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AG68">
         <v>1</v>
       </c>
       <c r="AH68">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AI68">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.2">
@@ -8341,40 +8341,40 @@
         <v>38</v>
       </c>
       <c r="W69">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="X69">
-        <v>21.84</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="Y69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>4479</v>
+        <v>21982</v>
       </c>
       <c r="AB69">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD69" t="s">
         <v>28</v>
       </c>
       <c r="AE69">
-        <v>0.16500000000000001</v>
+        <v>0.87487499999999996</v>
       </c>
       <c r="AF69">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AG69">
         <v>1</v>
       </c>
       <c r="AH69">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AI69">
         <v>0</v>
@@ -8448,43 +8448,43 @@
         <v>38</v>
       </c>
       <c r="W70">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="X70">
-        <v>26.86</v>
+        <v>13.05</v>
       </c>
       <c r="Y70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z70">
         <v>1</v>
       </c>
       <c r="AA70">
-        <v>1904</v>
+        <v>515</v>
       </c>
       <c r="AB70">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="AC70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD70" t="s">
         <v>28</v>
       </c>
       <c r="AE70">
-        <v>0.19198000000000001</v>
+        <v>0.1867</v>
       </c>
       <c r="AF70">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AG70">
         <v>1</v>
       </c>
       <c r="AH70">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AI70">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.2">
@@ -8555,22 +8555,22 @@
         <v>38</v>
       </c>
       <c r="W71">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="X71">
-        <v>18.07</v>
+        <v>10.53</v>
       </c>
       <c r="Y71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA71">
-        <v>985</v>
+        <v>1343</v>
       </c>
       <c r="AB71">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="AC71" t="s">
         <v>40</v>
@@ -8579,19 +8579,19 @@
         <v>28</v>
       </c>
       <c r="AE71">
-        <v>0.21646389999999999</v>
+        <v>0.1733333</v>
       </c>
       <c r="AF71">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AG71">
         <v>1</v>
       </c>
       <c r="AH71">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AI71">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.2">
@@ -8662,10 +8662,10 @@
         <v>38</v>
       </c>
       <c r="W72">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="X72">
-        <v>29.37</v>
+        <v>21.84</v>
       </c>
       <c r="Y72">
         <v>0</v>
@@ -8674,31 +8674,31 @@
         <v>1</v>
       </c>
       <c r="AA72">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="AB72">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD72" t="s">
         <v>28</v>
       </c>
       <c r="AE72">
-        <v>0.1789</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="AF72">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AG72">
         <v>1</v>
       </c>
       <c r="AH72">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AI72">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.2">
@@ -8769,10 +8769,10 @@
         <v>38</v>
       </c>
       <c r="W73">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="X73">
-        <v>20.58</v>
+        <v>21.84</v>
       </c>
       <c r="Y73">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>1</v>
       </c>
       <c r="AA73">
-        <v>327</v>
+        <v>4479</v>
       </c>
       <c r="AB73">
         <v>12</v>
@@ -8793,16 +8793,16 @@
         <v>28</v>
       </c>
       <c r="AE73">
-        <v>0.15446670000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="AF73">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AG73">
         <v>1</v>
       </c>
       <c r="AH73">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AI73">
         <v>0</v>
@@ -8876,10 +8876,10 @@
         <v>38</v>
       </c>
       <c r="W74">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="X74">
-        <v>14.3</v>
+        <v>26.86</v>
       </c>
       <c r="Y74">
         <v>1</v>
@@ -8888,31 +8888,31 @@
         <v>1</v>
       </c>
       <c r="AA74">
-        <v>610</v>
+        <v>1904</v>
       </c>
       <c r="AB74">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="AC74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD74" t="s">
         <v>28</v>
       </c>
       <c r="AE74">
-        <v>0.18532000000000001</v>
+        <v>0.19198000000000001</v>
       </c>
       <c r="AF74">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AG74">
         <v>1</v>
       </c>
       <c r="AH74">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AI74">
-        <v>14.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.2">
@@ -8983,40 +8983,40 @@
         <v>38</v>
       </c>
       <c r="W75">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="X75">
-        <v>19.329999999999998</v>
+        <v>18.07</v>
       </c>
       <c r="Y75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA75">
-        <v>16</v>
+        <v>985</v>
       </c>
       <c r="AB75">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="AC75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AD75" t="s">
         <v>28</v>
       </c>
       <c r="AE75">
-        <v>0.16389999999999999</v>
+        <v>0.21646389999999999</v>
       </c>
       <c r="AF75">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AG75">
         <v>1</v>
       </c>
       <c r="AH75">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AI75">
         <v>0</v>
@@ -9090,10 +9090,10 @@
         <v>38</v>
       </c>
       <c r="W76">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X76">
-        <v>24.35</v>
+        <v>29.37</v>
       </c>
       <c r="Y76">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>1</v>
       </c>
       <c r="AA76">
-        <v>461</v>
+        <v>295</v>
       </c>
       <c r="AB76">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="AC76" t="s">
         <v>39</v>
@@ -9114,16 +9114,16 @@
         <v>28</v>
       </c>
       <c r="AE76">
-        <v>0.1616667</v>
+        <v>0.1789</v>
       </c>
       <c r="AF76">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AG76">
         <v>1</v>
       </c>
       <c r="AH76">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AI76">
         <v>0</v>
@@ -9197,10 +9197,10 @@
         <v>38</v>
       </c>
       <c r="W77">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="X77">
-        <v>13.05</v>
+        <v>20.58</v>
       </c>
       <c r="Y77">
         <v>0</v>
@@ -9209,31 +9209,31 @@
         <v>1</v>
       </c>
       <c r="AA77">
-        <v>698</v>
+        <v>327</v>
       </c>
       <c r="AB77">
         <v>12</v>
       </c>
       <c r="AC77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD77" t="s">
         <v>28</v>
       </c>
       <c r="AE77">
-        <v>0.17056669999999999</v>
+        <v>0.15446670000000001</v>
       </c>
       <c r="AF77">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG77">
         <v>1</v>
       </c>
       <c r="AH77">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AI77">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.2">
@@ -9304,10 +9304,10 @@
         <v>38</v>
       </c>
       <c r="W78">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="X78">
-        <v>20.58</v>
+        <v>14.3</v>
       </c>
       <c r="Y78">
         <v>1</v>
@@ -9316,10 +9316,10 @@
         <v>1</v>
       </c>
       <c r="AA78">
-        <v>1899</v>
+        <v>610</v>
       </c>
       <c r="AB78">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AC78" t="s">
         <v>40</v>
@@ -9328,18 +9328,446 @@
         <v>28</v>
       </c>
       <c r="AE78">
+        <v>0.18532000000000001</v>
+      </c>
+      <c r="AF78">
+        <v>73</v>
+      </c>
+      <c r="AG78">
+        <v>1</v>
+      </c>
+      <c r="AH78">
+        <v>73</v>
+      </c>
+      <c r="AI78">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>32</v>
+      </c>
+      <c r="E79">
+        <v>1003</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" t="s">
+        <v>34</v>
+      </c>
+      <c r="J79">
+        <v>60.006</v>
+      </c>
+      <c r="K79">
+        <v>9</v>
+      </c>
+      <c r="L79" t="s">
+        <v>35</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>7</v>
+      </c>
+      <c r="O79">
+        <v>-1263536832</v>
+      </c>
+      <c r="P79" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>37</v>
+      </c>
+      <c r="R79" t="s">
+        <v>37</v>
+      </c>
+      <c r="S79" s="1">
+        <v>43809</v>
+      </c>
+      <c r="T79" s="2">
+        <v>43809.784548611111</v>
+      </c>
+      <c r="U79" s="3">
+        <v>0.57621527777777781</v>
+      </c>
+      <c r="V79" t="s">
+        <v>38</v>
+      </c>
+      <c r="W79">
+        <v>74</v>
+      </c>
+      <c r="X79">
+        <v>19.329999999999998</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>1</v>
+      </c>
+      <c r="AA79">
+        <v>16</v>
+      </c>
+      <c r="AB79">
+        <v>12</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE79">
+        <v>0.16389999999999999</v>
+      </c>
+      <c r="AF79">
+        <v>74</v>
+      </c>
+      <c r="AG79">
+        <v>1</v>
+      </c>
+      <c r="AH79">
+        <v>74</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>32</v>
+      </c>
+      <c r="E80">
+        <v>1003</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" t="s">
+        <v>34</v>
+      </c>
+      <c r="J80">
+        <v>60.006</v>
+      </c>
+      <c r="K80">
+        <v>9</v>
+      </c>
+      <c r="L80" t="s">
+        <v>35</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>7</v>
+      </c>
+      <c r="O80">
+        <v>-1263536832</v>
+      </c>
+      <c r="P80" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>37</v>
+      </c>
+      <c r="R80" t="s">
+        <v>37</v>
+      </c>
+      <c r="S80" s="1">
+        <v>43809</v>
+      </c>
+      <c r="T80" s="2">
+        <v>43809.784548611111</v>
+      </c>
+      <c r="U80" s="3">
+        <v>0.57621527777777781</v>
+      </c>
+      <c r="V80" t="s">
+        <v>38</v>
+      </c>
+      <c r="W80">
+        <v>75</v>
+      </c>
+      <c r="X80">
+        <v>24.35</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>1</v>
+      </c>
+      <c r="AA80">
+        <v>461</v>
+      </c>
+      <c r="AB80">
+        <v>50</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE80">
+        <v>0.1616667</v>
+      </c>
+      <c r="AF80">
+        <v>75</v>
+      </c>
+      <c r="AG80">
+        <v>1</v>
+      </c>
+      <c r="AH80">
+        <v>75</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81">
+        <v>1003</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" t="s">
+        <v>34</v>
+      </c>
+      <c r="J81">
+        <v>60.006</v>
+      </c>
+      <c r="K81">
+        <v>9</v>
+      </c>
+      <c r="L81" t="s">
+        <v>35</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>7</v>
+      </c>
+      <c r="O81">
+        <v>-1263536832</v>
+      </c>
+      <c r="P81" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>37</v>
+      </c>
+      <c r="R81" t="s">
+        <v>37</v>
+      </c>
+      <c r="S81" s="1">
+        <v>43809</v>
+      </c>
+      <c r="T81" s="2">
+        <v>43809.784548611111</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0.57621527777777781</v>
+      </c>
+      <c r="V81" t="s">
+        <v>38</v>
+      </c>
+      <c r="W81">
+        <v>76</v>
+      </c>
+      <c r="X81">
+        <v>13.05</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>1</v>
+      </c>
+      <c r="AA81">
+        <v>698</v>
+      </c>
+      <c r="AB81">
+        <v>12</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD81" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE81">
+        <v>0.17056669999999999</v>
+      </c>
+      <c r="AF81">
+        <v>76</v>
+      </c>
+      <c r="AG81">
+        <v>1</v>
+      </c>
+      <c r="AH81">
+        <v>76</v>
+      </c>
+      <c r="AI81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82">
+        <v>1003</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
+      <c r="H82" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" t="s">
+        <v>34</v>
+      </c>
+      <c r="J82">
+        <v>60.006</v>
+      </c>
+      <c r="K82">
+        <v>9</v>
+      </c>
+      <c r="L82" t="s">
+        <v>35</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>7</v>
+      </c>
+      <c r="O82">
+        <v>-1263536832</v>
+      </c>
+      <c r="P82" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>37</v>
+      </c>
+      <c r="R82" t="s">
+        <v>37</v>
+      </c>
+      <c r="S82" s="1">
+        <v>43809</v>
+      </c>
+      <c r="T82" s="2">
+        <v>43809.784548611111</v>
+      </c>
+      <c r="U82" s="3">
+        <v>0.57621527777777781</v>
+      </c>
+      <c r="V82" t="s">
+        <v>38</v>
+      </c>
+      <c r="W82">
+        <v>77</v>
+      </c>
+      <c r="X82">
+        <v>20.58</v>
+      </c>
+      <c r="Y82">
+        <v>1</v>
+      </c>
+      <c r="Z82">
+        <v>1</v>
+      </c>
+      <c r="AA82">
+        <v>1899</v>
+      </c>
+      <c r="AB82">
+        <v>50</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE82">
         <v>0.17898</v>
       </c>
-      <c r="AF78">
+      <c r="AF82">
         <v>77</v>
       </c>
-      <c r="AG78">
-        <v>1</v>
-      </c>
-      <c r="AH78">
+      <c r="AG82">
+        <v>1</v>
+      </c>
+      <c r="AH82">
         <v>77</v>
       </c>
-      <c r="AI78">
+      <c r="AI82">
         <v>20.58</v>
       </c>
     </row>

--- a/data/social/S_1003.xlsx
+++ b/data/social/S_1003.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-effort/data/social/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF014BD2-9F92-C242-87BD-D391D1A5FB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63F893A-F5EF-F045-9B17-684DE2AB13D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44800" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S_1003" sheetId="1" r:id="rId1"/>
@@ -988,86 +988,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="4" max="4" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
       <c r="AB1" t="s">
@@ -1168,6 +1177,15 @@
       <c r="X2">
         <v>0</v>
       </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
       <c r="AB2">
         <v>0</v>
       </c>
@@ -1266,6 +1284,15 @@
       <c r="X3">
         <v>0</v>
       </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
       <c r="AB3">
         <v>0</v>
       </c>
@@ -1364,6 +1391,15 @@
       <c r="X4">
         <v>0</v>
       </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
       <c r="AB4">
         <v>0</v>
       </c>
@@ -1462,6 +1498,15 @@
       <c r="X5">
         <v>0</v>
       </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
       <c r="AB5">
         <v>0</v>
       </c>
@@ -1488,76 +1533,85 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="B6">
+      <c r="E6">
         <v>1003</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>34</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>60.006</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>9</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>35</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>7</v>
-      </c>
-      <c r="L6">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
         <v>-1263536832</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>36</v>
       </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="1">
         <v>43809</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="T6" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R6" s="3">
+      <c r="U6" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>38</v>
       </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
         <v>21.21</v>
       </c>
-      <c r="V6">
+      <c r="Y6">
         <v>2</v>
       </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
         <v>6594</v>
       </c>
       <c r="AB6">
@@ -1586,76 +1640,85 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="B7">
+      <c r="E7">
         <v>1003</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s">
+      <c r="I7" t="s">
         <v>34</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>60.006</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>9</v>
       </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>35</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
-      <c r="L7">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
         <v>-1263536832</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>36</v>
       </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="1">
         <v>43809</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R7" s="3">
+      <c r="U7" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>38</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <v>2</v>
       </c>
-      <c r="U7">
+      <c r="X7">
         <v>9.91</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
-      <c r="X7">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
         <v>2818</v>
       </c>
       <c r="AB7">
@@ -1684,76 +1747,85 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="B8">
+      <c r="E8">
         <v>1003</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>33</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8" t="s">
         <v>34</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>60.006</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>9</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>35</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
         <v>-1263536832</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
         <v>36</v>
       </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="1">
         <v>43809</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="T8" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>38</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <v>3</v>
       </c>
-      <c r="U8">
+      <c r="X8">
         <v>19.95</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
         <v>1137</v>
       </c>
       <c r="AB8">
@@ -1782,76 +1854,85 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="B9">
+      <c r="E9">
         <v>1003</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>34</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>60.006</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>9</v>
       </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
-      <c r="L9">
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
         <v>-1263536832</v>
       </c>
-      <c r="M9" t="s">
+      <c r="P9" t="s">
         <v>36</v>
       </c>
-      <c r="N9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="Q9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="1">
         <v>43809</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="T9" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>38</v>
       </c>
-      <c r="T9">
+      <c r="W9">
         <v>4</v>
       </c>
-      <c r="U9">
+      <c r="X9">
         <v>22.47</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
         <v>478</v>
       </c>
       <c r="AB9">
@@ -1880,76 +1961,85 @@
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="B10">
+      <c r="E10">
         <v>1003</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>34</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>60.006</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>35</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>7</v>
-      </c>
-      <c r="L10">
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10">
         <v>-1263536832</v>
       </c>
-      <c r="M10" t="s">
+      <c r="P10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" s="1">
+      <c r="Q10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="1">
         <v>43809</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="T10" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R10" s="3">
+      <c r="U10" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>38</v>
       </c>
-      <c r="T10">
+      <c r="W10">
         <v>5</v>
       </c>
-      <c r="U10">
+      <c r="X10">
         <v>12.42</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
         <v>75</v>
       </c>
       <c r="AB10">
@@ -1978,76 +2068,85 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="B11">
+      <c r="E11">
         <v>1003</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>33</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>34</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>60.006</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>9</v>
       </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>35</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>7</v>
-      </c>
-      <c r="L11">
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
         <v>-1263536832</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>36</v>
       </c>
-      <c r="N11" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="1">
+      <c r="Q11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="1">
         <v>43809</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="T11" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R11" s="3">
+      <c r="U11" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>38</v>
       </c>
-      <c r="T11">
+      <c r="W11">
         <v>6</v>
       </c>
-      <c r="U11">
+      <c r="X11">
         <v>13.67</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
         <v>384</v>
       </c>
       <c r="AB11">
@@ -2076,76 +2175,85 @@
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="B12">
+      <c r="E12">
         <v>1003</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
         <v>34</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>60.006</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>9</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>35</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>7</v>
-      </c>
-      <c r="L12">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+      <c r="O12">
         <v>-1263536832</v>
       </c>
-      <c r="M12" t="s">
+      <c r="P12" t="s">
         <v>36</v>
       </c>
-      <c r="N12" t="s">
-        <v>37</v>
-      </c>
-      <c r="O12" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="1">
+      <c r="Q12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="1">
         <v>43809</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="T12" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R12" s="3">
+      <c r="U12" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>38</v>
       </c>
-      <c r="T12">
-        <v>7</v>
-      </c>
-      <c r="U12">
+      <c r="W12">
+        <v>7</v>
+      </c>
+      <c r="X12">
         <v>18.7</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
         <v>712</v>
       </c>
       <c r="AB12">
@@ -2174,76 +2282,85 @@
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="B13">
+      <c r="E13">
         <v>1003</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>4</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>33</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
         <v>34</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>60.006</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>9</v>
       </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>35</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>7</v>
-      </c>
-      <c r="L13">
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>7</v>
+      </c>
+      <c r="O13">
         <v>-1263536832</v>
       </c>
-      <c r="M13" t="s">
+      <c r="P13" t="s">
         <v>36</v>
       </c>
-      <c r="N13" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" s="1">
+      <c r="Q13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="1">
         <v>43809</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="T13" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R13" s="3">
+      <c r="U13" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>38</v>
       </c>
-      <c r="T13">
+      <c r="W13">
         <v>8</v>
       </c>
-      <c r="U13">
+      <c r="X13">
         <v>12.42</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
         <v>710</v>
       </c>
       <c r="AB13">
@@ -2272,76 +2389,85 @@
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
+      <c r="E14">
         <v>1003</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>33</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
         <v>34</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>60.006</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>9</v>
       </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>35</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>7</v>
-      </c>
-      <c r="L14">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>7</v>
+      </c>
+      <c r="O14">
         <v>-1263536832</v>
       </c>
-      <c r="M14" t="s">
+      <c r="P14" t="s">
         <v>36</v>
       </c>
-      <c r="N14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="1">
+      <c r="Q14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="1">
         <v>43809</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="T14" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R14" s="3">
+      <c r="U14" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>38</v>
       </c>
-      <c r="T14">
+      <c r="W14">
         <v>9</v>
       </c>
-      <c r="U14">
+      <c r="X14">
         <v>14.93</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
         <v>360</v>
       </c>
       <c r="AB14">
@@ -2370,76 +2496,85 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="B15">
+      <c r="E15">
         <v>1003</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>34</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>60.006</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>9</v>
       </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>35</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>7</v>
-      </c>
-      <c r="L15">
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>7</v>
+      </c>
+      <c r="O15">
         <v>-1263536832</v>
       </c>
-      <c r="M15" t="s">
+      <c r="P15" t="s">
         <v>36</v>
       </c>
-      <c r="N15" t="s">
-        <v>37</v>
-      </c>
-      <c r="O15" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="Q15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="1">
         <v>43809</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="T15" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R15" s="3">
+      <c r="U15" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>38</v>
       </c>
-      <c r="T15">
+      <c r="W15">
         <v>10</v>
       </c>
-      <c r="U15">
+      <c r="X15">
         <v>17.440000000000001</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
         <v>429</v>
       </c>
       <c r="AB15">
@@ -2468,76 +2603,85 @@
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="B16">
+      <c r="E16">
         <v>1003</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
         <v>34</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>60.006</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>9</v>
       </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>35</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>7</v>
-      </c>
-      <c r="L16">
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>7</v>
+      </c>
+      <c r="O16">
         <v>-1263536832</v>
       </c>
-      <c r="M16" t="s">
+      <c r="P16" t="s">
         <v>36</v>
       </c>
-      <c r="N16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" t="s">
-        <v>37</v>
-      </c>
-      <c r="P16" s="1">
+      <c r="Q16" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="1">
         <v>43809</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="T16" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R16" s="3">
+      <c r="U16" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>38</v>
       </c>
-      <c r="T16">
+      <c r="W16">
         <v>11</v>
       </c>
-      <c r="U16">
+      <c r="X16">
         <v>27.49</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
         <v>346</v>
       </c>
       <c r="AB16">
@@ -2566,76 +2710,85 @@
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="B17">
+      <c r="E17">
         <v>1003</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>4</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I17" t="s">
         <v>34</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>60.006</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>9</v>
       </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>35</v>
       </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>7</v>
-      </c>
-      <c r="L17">
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>7</v>
+      </c>
+      <c r="O17">
         <v>-1263536832</v>
       </c>
-      <c r="M17" t="s">
+      <c r="P17" t="s">
         <v>36</v>
       </c>
-      <c r="N17" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" t="s">
-        <v>37</v>
-      </c>
-      <c r="P17" s="1">
+      <c r="Q17" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="1">
         <v>43809</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="T17" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S17" t="s">
+      <c r="V17" t="s">
         <v>38</v>
       </c>
-      <c r="T17">
+      <c r="W17">
         <v>12</v>
       </c>
-      <c r="U17">
+      <c r="X17">
         <v>16.190000000000001</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
         <v>664</v>
       </c>
       <c r="AB17">
@@ -2664,76 +2817,85 @@
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
+      <c r="E18">
         <v>1003</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>33</v>
       </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
         <v>34</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>60.006</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>9</v>
       </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>35</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>7</v>
-      </c>
-      <c r="L18">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>7</v>
+      </c>
+      <c r="O18">
         <v>-1263536832</v>
       </c>
-      <c r="M18" t="s">
+      <c r="P18" t="s">
         <v>36</v>
       </c>
-      <c r="N18" t="s">
-        <v>37</v>
-      </c>
-      <c r="O18" t="s">
-        <v>37</v>
-      </c>
-      <c r="P18" s="1">
+      <c r="Q18" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" t="s">
+        <v>37</v>
+      </c>
+      <c r="S18" s="1">
         <v>43809</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="T18" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S18" t="s">
+      <c r="V18" t="s">
         <v>38</v>
       </c>
-      <c r="T18">
+      <c r="W18">
         <v>13</v>
       </c>
-      <c r="U18">
+      <c r="X18">
         <v>14.93</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
         <v>135</v>
       </c>
       <c r="AB18">
@@ -2762,76 +2924,85 @@
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
         <v>32</v>
       </c>
-      <c r="B19">
+      <c r="E19">
         <v>1003</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>4</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>33</v>
       </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
         <v>34</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>60.006</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>9</v>
       </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>35</v>
       </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>7</v>
-      </c>
-      <c r="L19">
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>7</v>
+      </c>
+      <c r="O19">
         <v>-1263536832</v>
       </c>
-      <c r="M19" t="s">
+      <c r="P19" t="s">
         <v>36</v>
       </c>
-      <c r="N19" t="s">
-        <v>37</v>
-      </c>
-      <c r="O19" t="s">
-        <v>37</v>
-      </c>
-      <c r="P19" s="1">
+      <c r="Q19" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" t="s">
+        <v>37</v>
+      </c>
+      <c r="S19" s="1">
         <v>43809</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="T19" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R19" s="3">
+      <c r="U19" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S19" t="s">
+      <c r="V19" t="s">
         <v>38</v>
       </c>
-      <c r="T19">
+      <c r="W19">
         <v>14</v>
       </c>
-      <c r="U19">
+      <c r="X19">
         <v>9.91</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
         <v>323</v>
       </c>
       <c r="AB19">
@@ -2860,76 +3031,85 @@
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
         <v>32</v>
       </c>
-      <c r="B20">
+      <c r="E20">
         <v>1003</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>4</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>33</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
         <v>34</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>60.006</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>9</v>
       </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>35</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>7</v>
-      </c>
-      <c r="L20">
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>7</v>
+      </c>
+      <c r="O20">
         <v>-1263536832</v>
       </c>
-      <c r="M20" t="s">
+      <c r="P20" t="s">
         <v>36</v>
       </c>
-      <c r="N20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O20" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" s="1">
+      <c r="Q20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="1">
         <v>43809</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="T20" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R20" s="3">
+      <c r="U20" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S20" t="s">
+      <c r="V20" t="s">
         <v>38</v>
       </c>
-      <c r="T20">
+      <c r="W20">
         <v>15</v>
       </c>
-      <c r="U20">
+      <c r="X20">
         <v>21.21</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
         <v>507</v>
       </c>
       <c r="AB20">
@@ -2958,76 +3138,85 @@
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
+      <c r="E21">
         <v>1003</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>33</v>
       </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
         <v>34</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>60.006</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>9</v>
       </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>35</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>7</v>
-      </c>
-      <c r="L21">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>7</v>
+      </c>
+      <c r="O21">
         <v>-1263536832</v>
       </c>
-      <c r="M21" t="s">
+      <c r="P21" t="s">
         <v>36</v>
       </c>
-      <c r="N21" t="s">
-        <v>37</v>
-      </c>
-      <c r="O21" t="s">
-        <v>37</v>
-      </c>
-      <c r="P21" s="1">
+      <c r="Q21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" s="1">
         <v>43809</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="T21" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S21" t="s">
+      <c r="V21" t="s">
         <v>38</v>
       </c>
-      <c r="T21">
+      <c r="W21">
         <v>16</v>
       </c>
-      <c r="U21">
+      <c r="X21">
         <v>8.65</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>1</v>
-      </c>
-      <c r="X21">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
         <v>449</v>
       </c>
       <c r="AB21">
@@ -3056,76 +3245,85 @@
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="B22">
+      <c r="E22">
         <v>1003</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>4</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>33</v>
       </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
         <v>34</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>60.006</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>9</v>
       </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>35</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>7</v>
-      </c>
-      <c r="L22">
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>7</v>
+      </c>
+      <c r="O22">
         <v>-1263536832</v>
       </c>
-      <c r="M22" t="s">
+      <c r="P22" t="s">
         <v>36</v>
       </c>
-      <c r="N22" t="s">
-        <v>37</v>
-      </c>
-      <c r="O22" t="s">
-        <v>37</v>
-      </c>
-      <c r="P22" s="1">
+      <c r="Q22" t="s">
+        <v>37</v>
+      </c>
+      <c r="R22" t="s">
+        <v>37</v>
+      </c>
+      <c r="S22" s="1">
         <v>43809</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="T22" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R22" s="3">
+      <c r="U22" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S22" t="s">
+      <c r="V22" t="s">
         <v>38</v>
       </c>
-      <c r="T22">
+      <c r="W22">
         <v>17</v>
       </c>
-      <c r="U22">
+      <c r="X22">
         <v>24.98</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="X22">
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
         <v>475</v>
       </c>
       <c r="AB22">
@@ -3154,76 +3352,85 @@
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
         <v>32</v>
       </c>
-      <c r="B23">
+      <c r="E23">
         <v>1003</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>4</v>
       </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>33</v>
       </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
         <v>34</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>60.006</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>9</v>
       </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>35</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>7</v>
-      </c>
-      <c r="L23">
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>7</v>
+      </c>
+      <c r="O23">
         <v>-1263536832</v>
       </c>
-      <c r="M23" t="s">
+      <c r="P23" t="s">
         <v>36</v>
       </c>
-      <c r="N23" t="s">
-        <v>37</v>
-      </c>
-      <c r="O23" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="1">
+      <c r="Q23" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23" t="s">
+        <v>37</v>
+      </c>
+      <c r="S23" s="1">
         <v>43809</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="T23" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S23" t="s">
+      <c r="V23" t="s">
         <v>38</v>
       </c>
-      <c r="T23">
+      <c r="W23">
         <v>18</v>
       </c>
-      <c r="U23">
+      <c r="X23">
         <v>16.190000000000001</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-      <c r="X23">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
         <v>805</v>
       </c>
       <c r="AB23">
@@ -3252,76 +3459,85 @@
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
         <v>32</v>
       </c>
-      <c r="B24">
+      <c r="E24">
         <v>1003</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>4</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>33</v>
       </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
         <v>34</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>60.006</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>9</v>
       </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>35</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>7</v>
-      </c>
-      <c r="L24">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="O24">
         <v>-1263536832</v>
       </c>
-      <c r="M24" t="s">
+      <c r="P24" t="s">
         <v>36</v>
       </c>
-      <c r="N24" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" t="s">
-        <v>37</v>
-      </c>
-      <c r="P24" s="1">
+      <c r="Q24" t="s">
+        <v>37</v>
+      </c>
+      <c r="R24" t="s">
+        <v>37</v>
+      </c>
+      <c r="S24" s="1">
         <v>43809</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="T24" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R24" s="3">
+      <c r="U24" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S24" t="s">
+      <c r="V24" t="s">
         <v>38</v>
       </c>
-      <c r="T24">
+      <c r="W24">
         <v>19</v>
       </c>
-      <c r="U24">
+      <c r="X24">
         <v>28.74</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-      <c r="X24">
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
         <v>356</v>
       </c>
       <c r="AB24">
@@ -3350,76 +3566,85 @@
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="B25">
+      <c r="E25">
         <v>1003</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>4</v>
       </c>
-      <c r="E25" t="s">
+      <c r="H25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
         <v>34</v>
       </c>
-      <c r="G25">
+      <c r="J25">
         <v>60.006</v>
       </c>
-      <c r="H25">
+      <c r="K25">
         <v>9</v>
       </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>35</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>7</v>
-      </c>
-      <c r="L25">
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25">
         <v>-1263536832</v>
       </c>
-      <c r="M25" t="s">
+      <c r="P25" t="s">
         <v>36</v>
       </c>
-      <c r="N25" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" t="s">
-        <v>37</v>
-      </c>
-      <c r="P25" s="1">
+      <c r="Q25" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" t="s">
+        <v>37</v>
+      </c>
+      <c r="S25" s="1">
         <v>43809</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="T25" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R25" s="3">
+      <c r="U25" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S25" t="s">
+      <c r="V25" t="s">
         <v>38</v>
       </c>
-      <c r="T25">
+      <c r="W25">
         <v>20</v>
       </c>
-      <c r="U25">
+      <c r="X25">
         <v>28.74</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
         <v>358</v>
       </c>
       <c r="AB25">
@@ -3448,76 +3673,85 @@
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
         <v>32</v>
       </c>
-      <c r="B26">
+      <c r="E26">
         <v>1003</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>4</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>33</v>
       </c>
-      <c r="F26" t="s">
+      <c r="I26" t="s">
         <v>34</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>60.006</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>9</v>
       </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>35</v>
       </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>7</v>
-      </c>
-      <c r="L26">
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>7</v>
+      </c>
+      <c r="O26">
         <v>-1263536832</v>
       </c>
-      <c r="M26" t="s">
+      <c r="P26" t="s">
         <v>36</v>
       </c>
-      <c r="N26" t="s">
-        <v>37</v>
-      </c>
-      <c r="O26" t="s">
-        <v>37</v>
-      </c>
-      <c r="P26" s="1">
+      <c r="Q26" t="s">
+        <v>37</v>
+      </c>
+      <c r="R26" t="s">
+        <v>37</v>
+      </c>
+      <c r="S26" s="1">
         <v>43809</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="T26" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S26" t="s">
+      <c r="V26" t="s">
         <v>38</v>
       </c>
-      <c r="T26">
+      <c r="W26">
         <v>21</v>
       </c>
-      <c r="U26">
+      <c r="X26">
         <v>17.440000000000001</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
         <v>638</v>
       </c>
       <c r="AB26">
@@ -3546,76 +3780,85 @@
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
         <v>32</v>
       </c>
-      <c r="B27">
+      <c r="E27">
         <v>1003</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>4</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>33</v>
       </c>
-      <c r="F27" t="s">
+      <c r="I27" t="s">
         <v>34</v>
       </c>
-      <c r="G27">
+      <c r="J27">
         <v>60.006</v>
       </c>
-      <c r="H27">
+      <c r="K27">
         <v>9</v>
       </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>35</v>
       </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>7</v>
-      </c>
-      <c r="L27">
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>7</v>
+      </c>
+      <c r="O27">
         <v>-1263536832</v>
       </c>
-      <c r="M27" t="s">
+      <c r="P27" t="s">
         <v>36</v>
       </c>
-      <c r="N27" t="s">
-        <v>37</v>
-      </c>
-      <c r="O27" t="s">
-        <v>37</v>
-      </c>
-      <c r="P27" s="1">
+      <c r="Q27" t="s">
+        <v>37</v>
+      </c>
+      <c r="R27" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" s="1">
         <v>43809</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="T27" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S27" t="s">
+      <c r="V27" t="s">
         <v>38</v>
       </c>
-      <c r="T27">
+      <c r="W27">
         <v>22</v>
       </c>
-      <c r="U27">
+      <c r="X27">
         <v>27.49</v>
       </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27">
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
         <v>957</v>
       </c>
       <c r="AB27">
@@ -3644,76 +3887,85 @@
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
+      <c r="E28">
         <v>1003</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <v>4</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>33</v>
       </c>
-      <c r="F28" t="s">
+      <c r="I28" t="s">
         <v>34</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>60.006</v>
       </c>
-      <c r="H28">
+      <c r="K28">
         <v>9</v>
       </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
         <v>35</v>
       </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>7</v>
-      </c>
-      <c r="L28">
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>7</v>
+      </c>
+      <c r="O28">
         <v>-1263536832</v>
       </c>
-      <c r="M28" t="s">
+      <c r="P28" t="s">
         <v>36</v>
       </c>
-      <c r="N28" t="s">
-        <v>37</v>
-      </c>
-      <c r="O28" t="s">
-        <v>37</v>
-      </c>
-      <c r="P28" s="1">
+      <c r="Q28" t="s">
+        <v>37</v>
+      </c>
+      <c r="R28" t="s">
+        <v>37</v>
+      </c>
+      <c r="S28" s="1">
         <v>43809</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="T28" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R28" s="3">
+      <c r="U28" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S28" t="s">
+      <c r="V28" t="s">
         <v>38</v>
       </c>
-      <c r="T28">
+      <c r="W28">
         <v>23</v>
       </c>
-      <c r="U28">
+      <c r="X28">
         <v>22.47</v>
       </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>1</v>
-      </c>
-      <c r="X28">
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
         <v>1835</v>
       </c>
       <c r="AB28">
@@ -3742,76 +3994,85 @@
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="B29">
+      <c r="E29">
         <v>1003</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>4</v>
       </c>
-      <c r="E29" t="s">
+      <c r="H29" t="s">
         <v>33</v>
       </c>
-      <c r="F29" t="s">
+      <c r="I29" t="s">
         <v>34</v>
       </c>
-      <c r="G29">
+      <c r="J29">
         <v>60.006</v>
       </c>
-      <c r="H29">
+      <c r="K29">
         <v>9</v>
       </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>35</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>7</v>
-      </c>
-      <c r="L29">
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>7</v>
+      </c>
+      <c r="O29">
         <v>-1263536832</v>
       </c>
-      <c r="M29" t="s">
+      <c r="P29" t="s">
         <v>36</v>
       </c>
-      <c r="N29" t="s">
-        <v>37</v>
-      </c>
-      <c r="O29" t="s">
-        <v>37</v>
-      </c>
-      <c r="P29" s="1">
+      <c r="Q29" t="s">
+        <v>37</v>
+      </c>
+      <c r="R29" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" s="1">
         <v>43809</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="T29" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R29" s="3">
+      <c r="U29" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S29" t="s">
+      <c r="V29" t="s">
         <v>38</v>
       </c>
-      <c r="T29">
+      <c r="W29">
         <v>24</v>
       </c>
-      <c r="U29">
+      <c r="X29">
         <v>28.74</v>
       </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="X29">
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
         <v>847</v>
       </c>
       <c r="AB29">
@@ -3840,76 +4101,85 @@
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
+      <c r="E30">
         <v>1003</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>4</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>33</v>
       </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
         <v>34</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>60.006</v>
       </c>
-      <c r="H30">
+      <c r="K30">
         <v>9</v>
       </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>35</v>
       </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>7</v>
-      </c>
-      <c r="L30">
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>7</v>
+      </c>
+      <c r="O30">
         <v>-1263536832</v>
       </c>
-      <c r="M30" t="s">
+      <c r="P30" t="s">
         <v>36</v>
       </c>
-      <c r="N30" t="s">
-        <v>37</v>
-      </c>
-      <c r="O30" t="s">
-        <v>37</v>
-      </c>
-      <c r="P30" s="1">
+      <c r="Q30" t="s">
+        <v>37</v>
+      </c>
+      <c r="R30" t="s">
+        <v>37</v>
+      </c>
+      <c r="S30" s="1">
         <v>43809</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="T30" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R30" s="3">
+      <c r="U30" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S30" t="s">
+      <c r="V30" t="s">
         <v>38</v>
       </c>
-      <c r="T30">
+      <c r="W30">
         <v>25</v>
       </c>
-      <c r="U30">
+      <c r="X30">
         <v>18.7</v>
       </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="X30">
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
         <v>644</v>
       </c>
       <c r="AB30">
@@ -3938,76 +4208,85 @@
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
         <v>32</v>
       </c>
-      <c r="B31">
+      <c r="E31">
         <v>1003</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>4</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
         <v>33</v>
       </c>
-      <c r="F31" t="s">
+      <c r="I31" t="s">
         <v>34</v>
       </c>
-      <c r="G31">
+      <c r="J31">
         <v>60.006</v>
       </c>
-      <c r="H31">
+      <c r="K31">
         <v>9</v>
       </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>35</v>
       </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>7</v>
-      </c>
-      <c r="L31">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31">
         <v>-1263536832</v>
       </c>
-      <c r="M31" t="s">
+      <c r="P31" t="s">
         <v>36</v>
       </c>
-      <c r="N31" t="s">
-        <v>37</v>
-      </c>
-      <c r="O31" t="s">
-        <v>37</v>
-      </c>
-      <c r="P31" s="1">
+      <c r="Q31" t="s">
+        <v>37</v>
+      </c>
+      <c r="R31" t="s">
+        <v>37</v>
+      </c>
+      <c r="S31" s="1">
         <v>43809</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="T31" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R31" s="3">
+      <c r="U31" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S31" t="s">
+      <c r="V31" t="s">
         <v>38</v>
       </c>
-      <c r="T31">
+      <c r="W31">
         <v>26</v>
       </c>
-      <c r="U31">
+      <c r="X31">
         <v>23.72</v>
       </c>
-      <c r="V31">
+      <c r="Y31">
         <v>2</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
         <v>15426</v>
       </c>
       <c r="AB31">
@@ -4036,76 +4315,85 @@
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
         <v>32</v>
       </c>
-      <c r="B32">
+      <c r="E32">
         <v>1003</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>4</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>33</v>
       </c>
-      <c r="F32" t="s">
+      <c r="I32" t="s">
         <v>34</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>60.006</v>
       </c>
-      <c r="H32">
+      <c r="K32">
         <v>9</v>
       </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
         <v>35</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>7</v>
-      </c>
-      <c r="L32">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>7</v>
+      </c>
+      <c r="O32">
         <v>-1263536832</v>
       </c>
-      <c r="M32" t="s">
+      <c r="P32" t="s">
         <v>36</v>
       </c>
-      <c r="N32" t="s">
-        <v>37</v>
-      </c>
-      <c r="O32" t="s">
-        <v>37</v>
-      </c>
-      <c r="P32" s="1">
+      <c r="Q32" t="s">
+        <v>37</v>
+      </c>
+      <c r="R32" t="s">
+        <v>37</v>
+      </c>
+      <c r="S32" s="1">
         <v>43809</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="T32" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R32" s="3">
+      <c r="U32" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S32" t="s">
+      <c r="V32" t="s">
         <v>38</v>
       </c>
-      <c r="T32">
+      <c r="W32">
         <v>27</v>
       </c>
-      <c r="U32">
+      <c r="X32">
         <v>17.440000000000001</v>
       </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32">
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
         <v>262</v>
       </c>
       <c r="AB32">
@@ -4134,76 +4422,85 @@
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="E33">
         <v>1003</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>4</v>
       </c>
-      <c r="E33" t="s">
+      <c r="H33" t="s">
         <v>33</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I33" t="s">
         <v>34</v>
       </c>
-      <c r="G33">
+      <c r="J33">
         <v>60.006</v>
       </c>
-      <c r="H33">
+      <c r="K33">
         <v>9</v>
       </c>
-      <c r="I33" t="s">
+      <c r="L33" t="s">
         <v>35</v>
       </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>7</v>
-      </c>
-      <c r="L33">
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>7</v>
+      </c>
+      <c r="O33">
         <v>-1263536832</v>
       </c>
-      <c r="M33" t="s">
+      <c r="P33" t="s">
         <v>36</v>
       </c>
-      <c r="N33" t="s">
-        <v>37</v>
-      </c>
-      <c r="O33" t="s">
-        <v>37</v>
-      </c>
-      <c r="P33" s="1">
+      <c r="Q33" t="s">
+        <v>37</v>
+      </c>
+      <c r="R33" t="s">
+        <v>37</v>
+      </c>
+      <c r="S33" s="1">
         <v>43809</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="T33" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S33" t="s">
+      <c r="V33" t="s">
         <v>38</v>
       </c>
-      <c r="T33">
+      <c r="W33">
         <v>28</v>
       </c>
-      <c r="U33">
+      <c r="X33">
         <v>26.23</v>
       </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>1</v>
-      </c>
-      <c r="X33">
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
         <v>658</v>
       </c>
       <c r="AB33">
@@ -4232,76 +4529,85 @@
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="E34">
         <v>1003</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>4</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H34" t="s">
         <v>33</v>
       </c>
-      <c r="F34" t="s">
+      <c r="I34" t="s">
         <v>34</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>60.006</v>
       </c>
-      <c r="H34">
+      <c r="K34">
         <v>9</v>
       </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
         <v>35</v>
       </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>7</v>
-      </c>
-      <c r="L34">
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>7</v>
+      </c>
+      <c r="O34">
         <v>-1263536832</v>
       </c>
-      <c r="M34" t="s">
+      <c r="P34" t="s">
         <v>36</v>
       </c>
-      <c r="N34" t="s">
-        <v>37</v>
-      </c>
-      <c r="O34" t="s">
-        <v>37</v>
-      </c>
-      <c r="P34" s="1">
+      <c r="Q34" t="s">
+        <v>37</v>
+      </c>
+      <c r="R34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S34" s="1">
         <v>43809</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="T34" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R34" s="3">
+      <c r="U34" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S34" t="s">
+      <c r="V34" t="s">
         <v>38</v>
       </c>
-      <c r="T34">
+      <c r="W34">
         <v>29</v>
       </c>
-      <c r="U34">
+      <c r="X34">
         <v>12.42</v>
       </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>1</v>
-      </c>
-      <c r="X34">
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
         <v>3834</v>
       </c>
       <c r="AB34">
@@ -4330,76 +4636,85 @@
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
         <v>32</v>
       </c>
-      <c r="B35">
+      <c r="E35">
         <v>1003</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>4</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>33</v>
       </c>
-      <c r="F35" t="s">
+      <c r="I35" t="s">
         <v>34</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>60.006</v>
       </c>
-      <c r="H35">
+      <c r="K35">
         <v>9</v>
       </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
         <v>35</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>7</v>
-      </c>
-      <c r="L35">
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>7</v>
+      </c>
+      <c r="O35">
         <v>-1263536832</v>
       </c>
-      <c r="M35" t="s">
+      <c r="P35" t="s">
         <v>36</v>
       </c>
-      <c r="N35" t="s">
-        <v>37</v>
-      </c>
-      <c r="O35" t="s">
-        <v>37</v>
-      </c>
-      <c r="P35" s="1">
+      <c r="Q35" t="s">
+        <v>37</v>
+      </c>
+      <c r="R35" t="s">
+        <v>37</v>
+      </c>
+      <c r="S35" s="1">
         <v>43809</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="T35" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S35" t="s">
+      <c r="V35" t="s">
         <v>38</v>
       </c>
-      <c r="T35">
+      <c r="W35">
         <v>30</v>
       </c>
-      <c r="U35">
+      <c r="X35">
         <v>9.91</v>
       </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>1</v>
-      </c>
-      <c r="X35">
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
         <v>4548</v>
       </c>
       <c r="AB35">
@@ -4428,76 +4743,85 @@
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
         <v>32</v>
       </c>
-      <c r="B36">
+      <c r="E36">
         <v>1003</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>4</v>
       </c>
-      <c r="E36" t="s">
+      <c r="H36" t="s">
         <v>33</v>
       </c>
-      <c r="F36" t="s">
+      <c r="I36" t="s">
         <v>34</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>60.006</v>
       </c>
-      <c r="H36">
+      <c r="K36">
         <v>9</v>
       </c>
-      <c r="I36" t="s">
+      <c r="L36" t="s">
         <v>35</v>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>7</v>
-      </c>
-      <c r="L36">
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>7</v>
+      </c>
+      <c r="O36">
         <v>-1263536832</v>
       </c>
-      <c r="M36" t="s">
+      <c r="P36" t="s">
         <v>36</v>
       </c>
-      <c r="N36" t="s">
-        <v>37</v>
-      </c>
-      <c r="O36" t="s">
-        <v>37</v>
-      </c>
-      <c r="P36" s="1">
+      <c r="Q36" t="s">
+        <v>37</v>
+      </c>
+      <c r="R36" t="s">
+        <v>37</v>
+      </c>
+      <c r="S36" s="1">
         <v>43809</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="T36" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R36" s="3">
+      <c r="U36" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S36" t="s">
+      <c r="V36" t="s">
         <v>38</v>
       </c>
-      <c r="T36">
+      <c r="W36">
         <v>31</v>
       </c>
-      <c r="U36">
+      <c r="X36">
         <v>21.21</v>
       </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36">
-        <v>1</v>
-      </c>
-      <c r="X36">
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
         <v>1341</v>
       </c>
       <c r="AB36">
@@ -4526,76 +4850,85 @@
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
         <v>32</v>
       </c>
-      <c r="B37">
+      <c r="E37">
         <v>1003</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>4</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H37" t="s">
         <v>33</v>
       </c>
-      <c r="F37" t="s">
+      <c r="I37" t="s">
         <v>34</v>
       </c>
-      <c r="G37">
+      <c r="J37">
         <v>60.006</v>
       </c>
-      <c r="H37">
+      <c r="K37">
         <v>9</v>
       </c>
-      <c r="I37" t="s">
+      <c r="L37" t="s">
         <v>35</v>
       </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>7</v>
-      </c>
-      <c r="L37">
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>7</v>
+      </c>
+      <c r="O37">
         <v>-1263536832</v>
       </c>
-      <c r="M37" t="s">
+      <c r="P37" t="s">
         <v>36</v>
       </c>
-      <c r="N37" t="s">
-        <v>37</v>
-      </c>
-      <c r="O37" t="s">
-        <v>37</v>
-      </c>
-      <c r="P37" s="1">
+      <c r="Q37" t="s">
+        <v>37</v>
+      </c>
+      <c r="R37" t="s">
+        <v>37</v>
+      </c>
+      <c r="S37" s="1">
         <v>43809</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="T37" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R37" s="3">
+      <c r="U37" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S37" t="s">
+      <c r="V37" t="s">
         <v>38</v>
       </c>
-      <c r="T37">
+      <c r="W37">
         <v>32</v>
       </c>
-      <c r="U37">
+      <c r="X37">
         <v>23.72</v>
       </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>1</v>
-      </c>
-      <c r="X37">
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>1</v>
+      </c>
+      <c r="AA37">
         <v>868</v>
       </c>
       <c r="AB37">
@@ -4624,76 +4957,85 @@
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
         <v>32</v>
       </c>
-      <c r="B38">
+      <c r="E38">
         <v>1003</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>4</v>
       </c>
-      <c r="E38" t="s">
+      <c r="H38" t="s">
         <v>33</v>
       </c>
-      <c r="F38" t="s">
+      <c r="I38" t="s">
         <v>34</v>
       </c>
-      <c r="G38">
+      <c r="J38">
         <v>60.006</v>
       </c>
-      <c r="H38">
+      <c r="K38">
         <v>9</v>
       </c>
-      <c r="I38" t="s">
+      <c r="L38" t="s">
         <v>35</v>
       </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>7</v>
-      </c>
-      <c r="L38">
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>7</v>
+      </c>
+      <c r="O38">
         <v>-1263536832</v>
       </c>
-      <c r="M38" t="s">
+      <c r="P38" t="s">
         <v>36</v>
       </c>
-      <c r="N38" t="s">
-        <v>37</v>
-      </c>
-      <c r="O38" t="s">
-        <v>37</v>
-      </c>
-      <c r="P38" s="1">
+      <c r="Q38" t="s">
+        <v>37</v>
+      </c>
+      <c r="R38" t="s">
+        <v>37</v>
+      </c>
+      <c r="S38" s="1">
         <v>43809</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R38" s="3">
+      <c r="U38" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S38" t="s">
+      <c r="V38" t="s">
         <v>38</v>
       </c>
-      <c r="T38">
+      <c r="W38">
         <v>33</v>
       </c>
-      <c r="U38">
+      <c r="X38">
         <v>22.47</v>
       </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>1</v>
-      </c>
-      <c r="X38">
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+      <c r="AA38">
         <v>1674</v>
       </c>
       <c r="AB38">
@@ -4722,76 +5064,85 @@
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
         <v>32</v>
       </c>
-      <c r="B39">
+      <c r="E39">
         <v>1003</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
         <v>4</v>
       </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
         <v>33</v>
       </c>
-      <c r="F39" t="s">
+      <c r="I39" t="s">
         <v>34</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>60.006</v>
       </c>
-      <c r="H39">
+      <c r="K39">
         <v>9</v>
       </c>
-      <c r="I39" t="s">
+      <c r="L39" t="s">
         <v>35</v>
       </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>7</v>
-      </c>
-      <c r="L39">
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>7</v>
+      </c>
+      <c r="O39">
         <v>-1263536832</v>
       </c>
-      <c r="M39" t="s">
+      <c r="P39" t="s">
         <v>36</v>
       </c>
-      <c r="N39" t="s">
-        <v>37</v>
-      </c>
-      <c r="O39" t="s">
-        <v>37</v>
-      </c>
-      <c r="P39" s="1">
+      <c r="Q39" t="s">
+        <v>37</v>
+      </c>
+      <c r="R39" t="s">
+        <v>37</v>
+      </c>
+      <c r="S39" s="1">
         <v>43809</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="T39" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R39" s="3">
+      <c r="U39" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S39" t="s">
+      <c r="V39" t="s">
         <v>38</v>
       </c>
-      <c r="T39">
+      <c r="W39">
         <v>34</v>
       </c>
-      <c r="U39">
+      <c r="X39">
         <v>8.65</v>
       </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>1</v>
-      </c>
-      <c r="X39">
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
         <v>821</v>
       </c>
       <c r="AB39">
@@ -4820,76 +5171,85 @@
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
         <v>32</v>
       </c>
-      <c r="B40">
+      <c r="E40">
         <v>1003</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
         <v>4</v>
       </c>
-      <c r="E40" t="s">
+      <c r="H40" t="s">
         <v>33</v>
       </c>
-      <c r="F40" t="s">
+      <c r="I40" t="s">
         <v>34</v>
       </c>
-      <c r="G40">
+      <c r="J40">
         <v>60.006</v>
       </c>
-      <c r="H40">
+      <c r="K40">
         <v>9</v>
       </c>
-      <c r="I40" t="s">
+      <c r="L40" t="s">
         <v>35</v>
       </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>7</v>
-      </c>
-      <c r="L40">
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>7</v>
+      </c>
+      <c r="O40">
         <v>-1263536832</v>
       </c>
-      <c r="M40" t="s">
+      <c r="P40" t="s">
         <v>36</v>
       </c>
-      <c r="N40" t="s">
-        <v>37</v>
-      </c>
-      <c r="O40" t="s">
-        <v>37</v>
-      </c>
-      <c r="P40" s="1">
+      <c r="Q40" t="s">
+        <v>37</v>
+      </c>
+      <c r="R40" t="s">
+        <v>37</v>
+      </c>
+      <c r="S40" s="1">
         <v>43809</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="T40" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R40" s="3">
+      <c r="U40" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S40" t="s">
+      <c r="V40" t="s">
         <v>38</v>
       </c>
-      <c r="T40">
+      <c r="W40">
         <v>35</v>
       </c>
-      <c r="U40">
+      <c r="X40">
         <v>24.98</v>
       </c>
-      <c r="V40">
+      <c r="Y40">
         <v>2</v>
       </c>
-      <c r="W40">
-        <v>1</v>
-      </c>
-      <c r="X40">
+      <c r="Z40">
+        <v>1</v>
+      </c>
+      <c r="AA40">
         <v>6289</v>
       </c>
       <c r="AB40">
@@ -4918,76 +5278,85 @@
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
         <v>32</v>
       </c>
-      <c r="B41">
+      <c r="E41">
         <v>1003</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
         <v>4</v>
       </c>
-      <c r="E41" t="s">
+      <c r="H41" t="s">
         <v>33</v>
       </c>
-      <c r="F41" t="s">
+      <c r="I41" t="s">
         <v>34</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>60.006</v>
       </c>
-      <c r="H41">
+      <c r="K41">
         <v>9</v>
       </c>
-      <c r="I41" t="s">
+      <c r="L41" t="s">
         <v>35</v>
       </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>7</v>
-      </c>
-      <c r="L41">
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>7</v>
+      </c>
+      <c r="O41">
         <v>-1263536832</v>
       </c>
-      <c r="M41" t="s">
+      <c r="P41" t="s">
         <v>36</v>
       </c>
-      <c r="N41" t="s">
-        <v>37</v>
-      </c>
-      <c r="O41" t="s">
-        <v>37</v>
-      </c>
-      <c r="P41" s="1">
+      <c r="Q41" t="s">
+        <v>37</v>
+      </c>
+      <c r="R41" t="s">
+        <v>37</v>
+      </c>
+      <c r="S41" s="1">
         <v>43809</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="T41" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S41" t="s">
+      <c r="V41" t="s">
         <v>38</v>
       </c>
-      <c r="T41">
+      <c r="W41">
         <v>36</v>
       </c>
-      <c r="U41">
+      <c r="X41">
         <v>26.23</v>
       </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>1</v>
-      </c>
-      <c r="X41">
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
         <v>420</v>
       </c>
       <c r="AB41">
@@ -5016,76 +5385,85 @@
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
         <v>32</v>
       </c>
-      <c r="B42">
+      <c r="E42">
         <v>1003</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
         <v>4</v>
       </c>
-      <c r="E42" t="s">
+      <c r="H42" t="s">
         <v>33</v>
       </c>
-      <c r="F42" t="s">
+      <c r="I42" t="s">
         <v>34</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>60.006</v>
       </c>
-      <c r="H42">
+      <c r="K42">
         <v>9</v>
       </c>
-      <c r="I42" t="s">
+      <c r="L42" t="s">
         <v>35</v>
       </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>7</v>
-      </c>
-      <c r="L42">
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>7</v>
+      </c>
+      <c r="O42">
         <v>-1263536832</v>
       </c>
-      <c r="M42" t="s">
+      <c r="P42" t="s">
         <v>36</v>
       </c>
-      <c r="N42" t="s">
-        <v>37</v>
-      </c>
-      <c r="O42" t="s">
-        <v>37</v>
-      </c>
-      <c r="P42" s="1">
+      <c r="Q42" t="s">
+        <v>37</v>
+      </c>
+      <c r="R42" t="s">
+        <v>37</v>
+      </c>
+      <c r="S42" s="1">
         <v>43809</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="T42" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R42" s="3">
+      <c r="U42" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S42" t="s">
+      <c r="V42" t="s">
         <v>38</v>
       </c>
-      <c r="T42">
-        <v>37</v>
-      </c>
-      <c r="U42">
+      <c r="W42">
+        <v>37</v>
+      </c>
+      <c r="X42">
         <v>26.23</v>
       </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>1</v>
-      </c>
-      <c r="X42">
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
         <v>539</v>
       </c>
       <c r="AB42">
@@ -5114,76 +5492,85 @@
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
         <v>32</v>
       </c>
-      <c r="B43">
+      <c r="E43">
         <v>1003</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
         <v>4</v>
       </c>
-      <c r="E43" t="s">
+      <c r="H43" t="s">
         <v>33</v>
       </c>
-      <c r="F43" t="s">
+      <c r="I43" t="s">
         <v>34</v>
       </c>
-      <c r="G43">
+      <c r="J43">
         <v>60.006</v>
       </c>
-      <c r="H43">
+      <c r="K43">
         <v>9</v>
       </c>
-      <c r="I43" t="s">
+      <c r="L43" t="s">
         <v>35</v>
       </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>7</v>
-      </c>
-      <c r="L43">
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>7</v>
+      </c>
+      <c r="O43">
         <v>-1263536832</v>
       </c>
-      <c r="M43" t="s">
+      <c r="P43" t="s">
         <v>36</v>
       </c>
-      <c r="N43" t="s">
-        <v>37</v>
-      </c>
-      <c r="O43" t="s">
-        <v>37</v>
-      </c>
-      <c r="P43" s="1">
+      <c r="Q43" t="s">
+        <v>37</v>
+      </c>
+      <c r="R43" t="s">
+        <v>37</v>
+      </c>
+      <c r="S43" s="1">
         <v>43809</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="T43" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S43" t="s">
+      <c r="V43" t="s">
         <v>38</v>
       </c>
-      <c r="T43">
+      <c r="W43">
         <v>38</v>
       </c>
-      <c r="U43">
+      <c r="X43">
         <v>14.93</v>
       </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>1</v>
-      </c>
-      <c r="X43">
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
         <v>167</v>
       </c>
       <c r="AB43">
@@ -5212,76 +5599,85 @@
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
         <v>32</v>
       </c>
-      <c r="B44">
+      <c r="E44">
         <v>1003</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
         <v>4</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
         <v>33</v>
       </c>
-      <c r="F44" t="s">
+      <c r="I44" t="s">
         <v>34</v>
       </c>
-      <c r="G44">
+      <c r="J44">
         <v>60.006</v>
       </c>
-      <c r="H44">
+      <c r="K44">
         <v>9</v>
       </c>
-      <c r="I44" t="s">
+      <c r="L44" t="s">
         <v>35</v>
       </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>7</v>
-      </c>
-      <c r="L44">
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>7</v>
+      </c>
+      <c r="O44">
         <v>-1263536832</v>
       </c>
-      <c r="M44" t="s">
+      <c r="P44" t="s">
         <v>36</v>
       </c>
-      <c r="N44" t="s">
-        <v>37</v>
-      </c>
-      <c r="O44" t="s">
-        <v>37</v>
-      </c>
-      <c r="P44" s="1">
+      <c r="Q44" t="s">
+        <v>37</v>
+      </c>
+      <c r="R44" t="s">
+        <v>37</v>
+      </c>
+      <c r="S44" s="1">
         <v>43809</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="T44" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R44" s="3">
+      <c r="U44" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S44" t="s">
+      <c r="V44" t="s">
         <v>38</v>
       </c>
-      <c r="T44">
+      <c r="W44">
         <v>39</v>
       </c>
-      <c r="U44">
+      <c r="X44">
         <v>24.98</v>
       </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>1</v>
-      </c>
-      <c r="X44">
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
         <v>437</v>
       </c>
       <c r="AB44">
@@ -5310,76 +5706,85 @@
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
         <v>32</v>
       </c>
-      <c r="B45">
+      <c r="E45">
         <v>1003</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
         <v>4</v>
       </c>
-      <c r="E45" t="s">
+      <c r="H45" t="s">
         <v>33</v>
       </c>
-      <c r="F45" t="s">
+      <c r="I45" t="s">
         <v>34</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>60.006</v>
       </c>
-      <c r="H45">
+      <c r="K45">
         <v>9</v>
       </c>
-      <c r="I45" t="s">
+      <c r="L45" t="s">
         <v>35</v>
       </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>7</v>
-      </c>
-      <c r="L45">
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>7</v>
+      </c>
+      <c r="O45">
         <v>-1263536832</v>
       </c>
-      <c r="M45" t="s">
+      <c r="P45" t="s">
         <v>36</v>
       </c>
-      <c r="N45" t="s">
-        <v>37</v>
-      </c>
-      <c r="O45" t="s">
-        <v>37</v>
-      </c>
-      <c r="P45" s="1">
+      <c r="Q45" t="s">
+        <v>37</v>
+      </c>
+      <c r="R45" t="s">
+        <v>37</v>
+      </c>
+      <c r="S45" s="1">
         <v>43809</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="T45" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R45" s="3">
+      <c r="U45" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S45" t="s">
+      <c r="V45" t="s">
         <v>38</v>
       </c>
-      <c r="T45">
+      <c r="W45">
         <v>40</v>
       </c>
-      <c r="U45">
+      <c r="X45">
         <v>11.16</v>
       </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
         <v>142</v>
       </c>
       <c r="AB45">
@@ -5408,76 +5813,85 @@
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
         <v>32</v>
       </c>
-      <c r="B46">
+      <c r="E46">
         <v>1003</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
         <v>4</v>
       </c>
-      <c r="E46" t="s">
+      <c r="H46" t="s">
         <v>33</v>
       </c>
-      <c r="F46" t="s">
+      <c r="I46" t="s">
         <v>34</v>
       </c>
-      <c r="G46">
+      <c r="J46">
         <v>60.006</v>
       </c>
-      <c r="H46">
+      <c r="K46">
         <v>9</v>
       </c>
-      <c r="I46" t="s">
+      <c r="L46" t="s">
         <v>35</v>
       </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>7</v>
-      </c>
-      <c r="L46">
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>7</v>
+      </c>
+      <c r="O46">
         <v>-1263536832</v>
       </c>
-      <c r="M46" t="s">
+      <c r="P46" t="s">
         <v>36</v>
       </c>
-      <c r="N46" t="s">
-        <v>37</v>
-      </c>
-      <c r="O46" t="s">
-        <v>37</v>
-      </c>
-      <c r="P46" s="1">
+      <c r="Q46" t="s">
+        <v>37</v>
+      </c>
+      <c r="R46" t="s">
+        <v>37</v>
+      </c>
+      <c r="S46" s="1">
         <v>43809</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="T46" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S46" t="s">
+      <c r="V46" t="s">
         <v>38</v>
       </c>
-      <c r="T46">
+      <c r="W46">
         <v>41</v>
       </c>
-      <c r="U46">
+      <c r="X46">
         <v>19.95</v>
       </c>
-      <c r="V46">
+      <c r="Y46">
         <v>2</v>
       </c>
-      <c r="W46">
-        <v>1</v>
-      </c>
-      <c r="X46">
+      <c r="Z46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
         <v>6358</v>
       </c>
       <c r="AB46">
@@ -5506,76 +5920,85 @@
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
         <v>32</v>
       </c>
-      <c r="B47">
+      <c r="E47">
         <v>1003</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
         <v>4</v>
       </c>
-      <c r="E47" t="s">
+      <c r="H47" t="s">
         <v>33</v>
       </c>
-      <c r="F47" t="s">
+      <c r="I47" t="s">
         <v>34</v>
       </c>
-      <c r="G47">
+      <c r="J47">
         <v>60.006</v>
       </c>
-      <c r="H47">
+      <c r="K47">
         <v>9</v>
       </c>
-      <c r="I47" t="s">
+      <c r="L47" t="s">
         <v>35</v>
       </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>7</v>
-      </c>
-      <c r="L47">
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>7</v>
+      </c>
+      <c r="O47">
         <v>-1263536832</v>
       </c>
-      <c r="M47" t="s">
+      <c r="P47" t="s">
         <v>36</v>
       </c>
-      <c r="N47" t="s">
-        <v>37</v>
-      </c>
-      <c r="O47" t="s">
-        <v>37</v>
-      </c>
-      <c r="P47" s="1">
+      <c r="Q47" t="s">
+        <v>37</v>
+      </c>
+      <c r="R47" t="s">
+        <v>37</v>
+      </c>
+      <c r="S47" s="1">
         <v>43809</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="T47" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R47" s="3">
+      <c r="U47" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S47" t="s">
+      <c r="V47" t="s">
         <v>38</v>
       </c>
-      <c r="T47">
+      <c r="W47">
         <v>42</v>
       </c>
-      <c r="U47">
+      <c r="X47">
         <v>18.7</v>
       </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>1</v>
-      </c>
-      <c r="X47">
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
         <v>313</v>
       </c>
       <c r="AB47">
@@ -5604,76 +6027,85 @@
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
         <v>32</v>
       </c>
-      <c r="B48">
+      <c r="E48">
         <v>1003</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
         <v>4</v>
       </c>
-      <c r="E48" t="s">
+      <c r="H48" t="s">
         <v>33</v>
       </c>
-      <c r="F48" t="s">
+      <c r="I48" t="s">
         <v>34</v>
       </c>
-      <c r="G48">
+      <c r="J48">
         <v>60.006</v>
       </c>
-      <c r="H48">
+      <c r="K48">
         <v>9</v>
       </c>
-      <c r="I48" t="s">
+      <c r="L48" t="s">
         <v>35</v>
       </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>7</v>
-      </c>
-      <c r="L48">
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>7</v>
+      </c>
+      <c r="O48">
         <v>-1263536832</v>
       </c>
-      <c r="M48" t="s">
+      <c r="P48" t="s">
         <v>36</v>
       </c>
-      <c r="N48" t="s">
-        <v>37</v>
-      </c>
-      <c r="O48" t="s">
-        <v>37</v>
-      </c>
-      <c r="P48" s="1">
+      <c r="Q48" t="s">
+        <v>37</v>
+      </c>
+      <c r="R48" t="s">
+        <v>37</v>
+      </c>
+      <c r="S48" s="1">
         <v>43809</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="T48" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S48" t="s">
+      <c r="V48" t="s">
         <v>38</v>
       </c>
-      <c r="T48">
+      <c r="W48">
         <v>43</v>
       </c>
-      <c r="U48">
+      <c r="X48">
         <v>8.65</v>
       </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>1</v>
-      </c>
-      <c r="X48">
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
         <v>577</v>
       </c>
       <c r="AB48">
@@ -5702,76 +6134,85 @@
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
         <v>32</v>
       </c>
-      <c r="B49">
+      <c r="E49">
         <v>1003</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>4</v>
       </c>
-      <c r="E49" t="s">
+      <c r="H49" t="s">
         <v>33</v>
       </c>
-      <c r="F49" t="s">
+      <c r="I49" t="s">
         <v>34</v>
       </c>
-      <c r="G49">
+      <c r="J49">
         <v>60.006</v>
       </c>
-      <c r="H49">
+      <c r="K49">
         <v>9</v>
       </c>
-      <c r="I49" t="s">
+      <c r="L49" t="s">
         <v>35</v>
       </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>7</v>
-      </c>
-      <c r="L49">
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>7</v>
+      </c>
+      <c r="O49">
         <v>-1263536832</v>
       </c>
-      <c r="M49" t="s">
+      <c r="P49" t="s">
         <v>36</v>
       </c>
-      <c r="N49" t="s">
-        <v>37</v>
-      </c>
-      <c r="O49" t="s">
-        <v>37</v>
-      </c>
-      <c r="P49" s="1">
+      <c r="Q49" t="s">
+        <v>37</v>
+      </c>
+      <c r="R49" t="s">
+        <v>37</v>
+      </c>
+      <c r="S49" s="1">
         <v>43809</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="T49" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R49" s="3">
+      <c r="U49" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S49" t="s">
+      <c r="V49" t="s">
         <v>38</v>
       </c>
-      <c r="T49">
+      <c r="W49">
         <v>44</v>
       </c>
-      <c r="U49">
+      <c r="X49">
         <v>13.67</v>
       </c>
-      <c r="V49">
-        <v>1</v>
-      </c>
-      <c r="W49">
-        <v>1</v>
-      </c>
-      <c r="X49">
+      <c r="Y49">
+        <v>1</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
         <v>809</v>
       </c>
       <c r="AB49">
@@ -5800,76 +6241,85 @@
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
         <v>32</v>
       </c>
-      <c r="B50">
+      <c r="E50">
         <v>1003</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
         <v>4</v>
       </c>
-      <c r="E50" t="s">
+      <c r="H50" t="s">
         <v>33</v>
       </c>
-      <c r="F50" t="s">
+      <c r="I50" t="s">
         <v>34</v>
       </c>
-      <c r="G50">
+      <c r="J50">
         <v>60.006</v>
       </c>
-      <c r="H50">
+      <c r="K50">
         <v>9</v>
       </c>
-      <c r="I50" t="s">
+      <c r="L50" t="s">
         <v>35</v>
       </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>7</v>
-      </c>
-      <c r="L50">
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>7</v>
+      </c>
+      <c r="O50">
         <v>-1263536832</v>
       </c>
-      <c r="M50" t="s">
+      <c r="P50" t="s">
         <v>36</v>
       </c>
-      <c r="N50" t="s">
-        <v>37</v>
-      </c>
-      <c r="O50" t="s">
-        <v>37</v>
-      </c>
-      <c r="P50" s="1">
+      <c r="Q50" t="s">
+        <v>37</v>
+      </c>
+      <c r="R50" t="s">
+        <v>37</v>
+      </c>
+      <c r="S50" s="1">
         <v>43809</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="T50" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R50" s="3">
+      <c r="U50" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S50" t="s">
+      <c r="V50" t="s">
         <v>38</v>
       </c>
-      <c r="T50">
+      <c r="W50">
         <v>45</v>
       </c>
-      <c r="U50">
+      <c r="X50">
         <v>11.16</v>
       </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>1</v>
-      </c>
-      <c r="X50">
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
         <v>3771</v>
       </c>
       <c r="AB50">
@@ -5898,76 +6348,85 @@
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
         <v>32</v>
       </c>
-      <c r="B51">
+      <c r="E51">
         <v>1003</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
         <v>4</v>
       </c>
-      <c r="E51" t="s">
+      <c r="H51" t="s">
         <v>33</v>
       </c>
-      <c r="F51" t="s">
+      <c r="I51" t="s">
         <v>34</v>
       </c>
-      <c r="G51">
+      <c r="J51">
         <v>60.006</v>
       </c>
-      <c r="H51">
+      <c r="K51">
         <v>9</v>
       </c>
-      <c r="I51" t="s">
+      <c r="L51" t="s">
         <v>35</v>
       </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>7</v>
-      </c>
-      <c r="L51">
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>7</v>
+      </c>
+      <c r="O51">
         <v>-1263536832</v>
       </c>
-      <c r="M51" t="s">
+      <c r="P51" t="s">
         <v>36</v>
       </c>
-      <c r="N51" t="s">
-        <v>37</v>
-      </c>
-      <c r="O51" t="s">
-        <v>37</v>
-      </c>
-      <c r="P51" s="1">
+      <c r="Q51" t="s">
+        <v>37</v>
+      </c>
+      <c r="R51" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" s="1">
         <v>43809</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="T51" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R51" s="3">
+      <c r="U51" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S51" t="s">
+      <c r="V51" t="s">
         <v>38</v>
       </c>
-      <c r="T51">
+      <c r="W51">
         <v>46</v>
       </c>
-      <c r="U51">
+      <c r="X51">
         <v>19.95</v>
       </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
         <v>223</v>
       </c>
       <c r="AB51">
@@ -5996,76 +6455,85 @@
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
         <v>32</v>
       </c>
-      <c r="B52">
+      <c r="E52">
         <v>1003</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
         <v>4</v>
       </c>
-      <c r="E52" t="s">
+      <c r="H52" t="s">
         <v>33</v>
       </c>
-      <c r="F52" t="s">
+      <c r="I52" t="s">
         <v>34</v>
       </c>
-      <c r="G52">
+      <c r="J52">
         <v>60.006</v>
       </c>
-      <c r="H52">
+      <c r="K52">
         <v>9</v>
       </c>
-      <c r="I52" t="s">
+      <c r="L52" t="s">
         <v>35</v>
       </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>7</v>
-      </c>
-      <c r="L52">
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>7</v>
+      </c>
+      <c r="O52">
         <v>-1263536832</v>
       </c>
-      <c r="M52" t="s">
+      <c r="P52" t="s">
         <v>36</v>
       </c>
-      <c r="N52" t="s">
-        <v>37</v>
-      </c>
-      <c r="O52" t="s">
-        <v>37</v>
-      </c>
-      <c r="P52" s="1">
+      <c r="Q52" t="s">
+        <v>37</v>
+      </c>
+      <c r="R52" t="s">
+        <v>37</v>
+      </c>
+      <c r="S52" s="1">
         <v>43809</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="T52" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R52" s="3">
+      <c r="U52" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S52" t="s">
+      <c r="V52" t="s">
         <v>38</v>
       </c>
-      <c r="T52">
+      <c r="W52">
         <v>47</v>
       </c>
-      <c r="U52">
+      <c r="X52">
         <v>16.190000000000001</v>
       </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>1</v>
-      </c>
-      <c r="X52">
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+      <c r="AA52">
         <v>379</v>
       </c>
       <c r="AB52">
@@ -6094,76 +6562,85 @@
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
         <v>32</v>
       </c>
-      <c r="B53">
+      <c r="E53">
         <v>1003</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
         <v>4</v>
       </c>
-      <c r="E53" t="s">
+      <c r="H53" t="s">
         <v>33</v>
       </c>
-      <c r="F53" t="s">
+      <c r="I53" t="s">
         <v>34</v>
       </c>
-      <c r="G53">
+      <c r="J53">
         <v>60.006</v>
       </c>
-      <c r="H53">
+      <c r="K53">
         <v>9</v>
       </c>
-      <c r="I53" t="s">
+      <c r="L53" t="s">
         <v>35</v>
       </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
-        <v>7</v>
-      </c>
-      <c r="L53">
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>7</v>
+      </c>
+      <c r="O53">
         <v>-1263536832</v>
       </c>
-      <c r="M53" t="s">
+      <c r="P53" t="s">
         <v>36</v>
       </c>
-      <c r="N53" t="s">
-        <v>37</v>
-      </c>
-      <c r="O53" t="s">
-        <v>37</v>
-      </c>
-      <c r="P53" s="1">
+      <c r="Q53" t="s">
+        <v>37</v>
+      </c>
+      <c r="R53" t="s">
+        <v>37</v>
+      </c>
+      <c r="S53" s="1">
         <v>43809</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="T53" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R53" s="3">
+      <c r="U53" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S53" t="s">
+      <c r="V53" t="s">
         <v>38</v>
       </c>
-      <c r="T53">
+      <c r="W53">
         <v>48</v>
       </c>
-      <c r="U53">
+      <c r="X53">
         <v>23.72</v>
       </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>1</v>
-      </c>
-      <c r="X53">
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>1</v>
+      </c>
+      <c r="AA53">
         <v>840</v>
       </c>
       <c r="AB53">
@@ -6192,76 +6669,85 @@
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
         <v>32</v>
       </c>
-      <c r="B54">
+      <c r="E54">
         <v>1003</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
         <v>4</v>
       </c>
-      <c r="E54" t="s">
+      <c r="H54" t="s">
         <v>33</v>
       </c>
-      <c r="F54" t="s">
+      <c r="I54" t="s">
         <v>34</v>
       </c>
-      <c r="G54">
+      <c r="J54">
         <v>60.006</v>
       </c>
-      <c r="H54">
+      <c r="K54">
         <v>9</v>
       </c>
-      <c r="I54" t="s">
+      <c r="L54" t="s">
         <v>35</v>
       </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54">
-        <v>7</v>
-      </c>
-      <c r="L54">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>7</v>
+      </c>
+      <c r="O54">
         <v>-1263536832</v>
       </c>
-      <c r="M54" t="s">
+      <c r="P54" t="s">
         <v>36</v>
       </c>
-      <c r="N54" t="s">
-        <v>37</v>
-      </c>
-      <c r="O54" t="s">
-        <v>37</v>
-      </c>
-      <c r="P54" s="1">
+      <c r="Q54" t="s">
+        <v>37</v>
+      </c>
+      <c r="R54" t="s">
+        <v>37</v>
+      </c>
+      <c r="S54" s="1">
         <v>43809</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="T54" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S54" t="s">
+      <c r="V54" t="s">
         <v>38</v>
       </c>
-      <c r="T54">
+      <c r="W54">
         <v>49</v>
       </c>
-      <c r="U54">
+      <c r="X54">
         <v>27.49</v>
       </c>
-      <c r="V54">
+      <c r="Y54">
         <v>2</v>
       </c>
-      <c r="W54">
-        <v>1</v>
-      </c>
-      <c r="X54">
+      <c r="Z54">
+        <v>1</v>
+      </c>
+      <c r="AA54">
         <v>7235</v>
       </c>
       <c r="AB54">
@@ -6290,76 +6776,85 @@
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
         <v>32</v>
       </c>
-      <c r="B55">
+      <c r="E55">
         <v>1003</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
         <v>4</v>
       </c>
-      <c r="E55" t="s">
+      <c r="H55" t="s">
         <v>33</v>
       </c>
-      <c r="F55" t="s">
+      <c r="I55" t="s">
         <v>34</v>
       </c>
-      <c r="G55">
+      <c r="J55">
         <v>60.006</v>
       </c>
-      <c r="H55">
+      <c r="K55">
         <v>9</v>
       </c>
-      <c r="I55" t="s">
+      <c r="L55" t="s">
         <v>35</v>
       </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55">
-        <v>7</v>
-      </c>
-      <c r="L55">
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>7</v>
+      </c>
+      <c r="O55">
         <v>-1263536832</v>
       </c>
-      <c r="M55" t="s">
+      <c r="P55" t="s">
         <v>36</v>
       </c>
-      <c r="N55" t="s">
-        <v>37</v>
-      </c>
-      <c r="O55" t="s">
-        <v>37</v>
-      </c>
-      <c r="P55" s="1">
+      <c r="Q55" t="s">
+        <v>37</v>
+      </c>
+      <c r="R55" t="s">
+        <v>37</v>
+      </c>
+      <c r="S55" s="1">
         <v>43809</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="T55" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R55" s="3">
+      <c r="U55" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S55" t="s">
+      <c r="V55" t="s">
         <v>38</v>
       </c>
-      <c r="T55">
+      <c r="W55">
         <v>50</v>
       </c>
-      <c r="U55">
+      <c r="X55">
         <v>13.67</v>
       </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>1</v>
-      </c>
-      <c r="X55">
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AA55">
         <v>964</v>
       </c>
       <c r="AB55">
@@ -6388,76 +6883,85 @@
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
         <v>32</v>
       </c>
-      <c r="B56">
+      <c r="E56">
         <v>1003</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
         <v>4</v>
       </c>
-      <c r="E56" t="s">
+      <c r="H56" t="s">
         <v>33</v>
       </c>
-      <c r="F56" t="s">
+      <c r="I56" t="s">
         <v>34</v>
       </c>
-      <c r="G56">
+      <c r="J56">
         <v>60.006</v>
       </c>
-      <c r="H56">
+      <c r="K56">
         <v>9</v>
       </c>
-      <c r="I56" t="s">
+      <c r="L56" t="s">
         <v>35</v>
       </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
-        <v>7</v>
-      </c>
-      <c r="L56">
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>7</v>
+      </c>
+      <c r="O56">
         <v>-1263536832</v>
       </c>
-      <c r="M56" t="s">
+      <c r="P56" t="s">
         <v>36</v>
       </c>
-      <c r="N56" t="s">
-        <v>37</v>
-      </c>
-      <c r="O56" t="s">
-        <v>37</v>
-      </c>
-      <c r="P56" s="1">
+      <c r="Q56" t="s">
+        <v>37</v>
+      </c>
+      <c r="R56" t="s">
+        <v>37</v>
+      </c>
+      <c r="S56" s="1">
         <v>43809</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="T56" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R56" s="3">
+      <c r="U56" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S56" t="s">
+      <c r="V56" t="s">
         <v>38</v>
       </c>
-      <c r="T56">
+      <c r="W56">
         <v>51</v>
       </c>
-      <c r="U56">
+      <c r="X56">
         <v>11.16</v>
       </c>
-      <c r="V56">
+      <c r="Y56">
         <v>2</v>
       </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
         <v>8441</v>
       </c>
       <c r="AB56">
@@ -6486,76 +6990,85 @@
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
         <v>32</v>
       </c>
-      <c r="B57">
+      <c r="E57">
         <v>1003</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
         <v>4</v>
       </c>
-      <c r="E57" t="s">
+      <c r="H57" t="s">
         <v>33</v>
       </c>
-      <c r="F57" t="s">
+      <c r="I57" t="s">
         <v>34</v>
       </c>
-      <c r="G57">
+      <c r="J57">
         <v>60.006</v>
       </c>
-      <c r="H57">
+      <c r="K57">
         <v>9</v>
       </c>
-      <c r="I57" t="s">
+      <c r="L57" t="s">
         <v>35</v>
       </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
-        <v>7</v>
-      </c>
-      <c r="L57">
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>7</v>
+      </c>
+      <c r="O57">
         <v>-1263536832</v>
       </c>
-      <c r="M57" t="s">
+      <c r="P57" t="s">
         <v>36</v>
       </c>
-      <c r="N57" t="s">
-        <v>37</v>
-      </c>
-      <c r="O57" t="s">
-        <v>37</v>
-      </c>
-      <c r="P57" s="1">
+      <c r="Q57" t="s">
+        <v>37</v>
+      </c>
+      <c r="R57" t="s">
+        <v>37</v>
+      </c>
+      <c r="S57" s="1">
         <v>43809</v>
       </c>
-      <c r="Q57" s="2">
+      <c r="T57" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S57" t="s">
+      <c r="V57" t="s">
         <v>38</v>
       </c>
-      <c r="T57">
+      <c r="W57">
         <v>52</v>
       </c>
-      <c r="U57">
+      <c r="X57">
         <v>18.07</v>
       </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>1</v>
-      </c>
-      <c r="X57">
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AA57">
         <v>1999</v>
       </c>
       <c r="AB57">
@@ -6584,76 +7097,85 @@
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
         <v>32</v>
       </c>
-      <c r="B58">
+      <c r="E58">
         <v>1003</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
         <v>4</v>
       </c>
-      <c r="E58" t="s">
+      <c r="H58" t="s">
         <v>33</v>
       </c>
-      <c r="F58" t="s">
+      <c r="I58" t="s">
         <v>34</v>
       </c>
-      <c r="G58">
+      <c r="J58">
         <v>60.006</v>
       </c>
-      <c r="H58">
+      <c r="K58">
         <v>9</v>
       </c>
-      <c r="I58" t="s">
+      <c r="L58" t="s">
         <v>35</v>
       </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <v>7</v>
-      </c>
-      <c r="L58">
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>7</v>
+      </c>
+      <c r="O58">
         <v>-1263536832</v>
       </c>
-      <c r="M58" t="s">
+      <c r="P58" t="s">
         <v>36</v>
       </c>
-      <c r="N58" t="s">
-        <v>37</v>
-      </c>
-      <c r="O58" t="s">
-        <v>37</v>
-      </c>
-      <c r="P58" s="1">
+      <c r="Q58" t="s">
+        <v>37</v>
+      </c>
+      <c r="R58" t="s">
+        <v>37</v>
+      </c>
+      <c r="S58" s="1">
         <v>43809</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="T58" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S58" t="s">
+      <c r="V58" t="s">
         <v>38</v>
       </c>
-      <c r="T58">
+      <c r="W58">
         <v>53</v>
       </c>
-      <c r="U58">
+      <c r="X58">
         <v>24.35</v>
       </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>1</v>
-      </c>
-      <c r="X58">
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>1</v>
+      </c>
+      <c r="AA58">
         <v>3974</v>
       </c>
       <c r="AB58">
@@ -6682,76 +7204,85 @@
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
         <v>32</v>
       </c>
-      <c r="B59">
+      <c r="E59">
         <v>1003</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
         <v>4</v>
       </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
         <v>33</v>
       </c>
-      <c r="F59" t="s">
+      <c r="I59" t="s">
         <v>34</v>
       </c>
-      <c r="G59">
+      <c r="J59">
         <v>60.006</v>
       </c>
-      <c r="H59">
+      <c r="K59">
         <v>9</v>
       </c>
-      <c r="I59" t="s">
+      <c r="L59" t="s">
         <v>35</v>
       </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="K59">
-        <v>7</v>
-      </c>
-      <c r="L59">
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>7</v>
+      </c>
+      <c r="O59">
         <v>-1263536832</v>
       </c>
-      <c r="M59" t="s">
+      <c r="P59" t="s">
         <v>36</v>
       </c>
-      <c r="N59" t="s">
-        <v>37</v>
-      </c>
-      <c r="O59" t="s">
-        <v>37</v>
-      </c>
-      <c r="P59" s="1">
+      <c r="Q59" t="s">
+        <v>37</v>
+      </c>
+      <c r="R59" t="s">
+        <v>37</v>
+      </c>
+      <c r="S59" s="1">
         <v>43809</v>
       </c>
-      <c r="Q59" s="2">
+      <c r="T59" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S59" t="s">
+      <c r="V59" t="s">
         <v>38</v>
       </c>
-      <c r="T59">
+      <c r="W59">
         <v>54</v>
       </c>
-      <c r="U59">
+      <c r="X59">
         <v>26.86</v>
       </c>
-      <c r="V59">
+      <c r="Y59">
         <v>2</v>
       </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
         <v>8378</v>
       </c>
       <c r="AB59">
@@ -6780,76 +7311,85 @@
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
         <v>32</v>
       </c>
-      <c r="B60">
+      <c r="E60">
         <v>1003</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
         <v>4</v>
       </c>
-      <c r="E60" t="s">
+      <c r="H60" t="s">
         <v>33</v>
       </c>
-      <c r="F60" t="s">
+      <c r="I60" t="s">
         <v>34</v>
       </c>
-      <c r="G60">
+      <c r="J60">
         <v>60.006</v>
       </c>
-      <c r="H60">
+      <c r="K60">
         <v>9</v>
       </c>
-      <c r="I60" t="s">
+      <c r="L60" t="s">
         <v>35</v>
       </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-      <c r="K60">
-        <v>7</v>
-      </c>
-      <c r="L60">
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>7</v>
+      </c>
+      <c r="O60">
         <v>-1263536832</v>
       </c>
-      <c r="M60" t="s">
+      <c r="P60" t="s">
         <v>36</v>
       </c>
-      <c r="N60" t="s">
-        <v>37</v>
-      </c>
-      <c r="O60" t="s">
-        <v>37</v>
-      </c>
-      <c r="P60" s="1">
+      <c r="Q60" t="s">
+        <v>37</v>
+      </c>
+      <c r="R60" t="s">
+        <v>37</v>
+      </c>
+      <c r="S60" s="1">
         <v>43809</v>
       </c>
-      <c r="Q60" s="2">
+      <c r="T60" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S60" t="s">
+      <c r="V60" t="s">
         <v>38</v>
       </c>
-      <c r="T60">
+      <c r="W60">
         <v>55</v>
       </c>
-      <c r="U60">
+      <c r="X60">
         <v>29.37</v>
       </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>1</v>
-      </c>
-      <c r="X60">
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+      <c r="AA60">
         <v>80</v>
       </c>
       <c r="AB60">
@@ -6878,76 +7418,85 @@
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
         <v>32</v>
       </c>
-      <c r="B61">
+      <c r="E61">
         <v>1003</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
         <v>4</v>
       </c>
-      <c r="E61" t="s">
+      <c r="H61" t="s">
         <v>33</v>
       </c>
-      <c r="F61" t="s">
+      <c r="I61" t="s">
         <v>34</v>
       </c>
-      <c r="G61">
+      <c r="J61">
         <v>60.006</v>
       </c>
-      <c r="H61">
+      <c r="K61">
         <v>9</v>
       </c>
-      <c r="I61" t="s">
+      <c r="L61" t="s">
         <v>35</v>
       </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61">
-        <v>7</v>
-      </c>
-      <c r="L61">
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>7</v>
+      </c>
+      <c r="O61">
         <v>-1263536832</v>
       </c>
-      <c r="M61" t="s">
+      <c r="P61" t="s">
         <v>36</v>
       </c>
-      <c r="N61" t="s">
-        <v>37</v>
-      </c>
-      <c r="O61" t="s">
-        <v>37</v>
-      </c>
-      <c r="P61" s="1">
+      <c r="Q61" t="s">
+        <v>37</v>
+      </c>
+      <c r="R61" t="s">
+        <v>37</v>
+      </c>
+      <c r="S61" s="1">
         <v>43809</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="T61" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R61" s="3">
+      <c r="U61" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S61" t="s">
+      <c r="V61" t="s">
         <v>38</v>
       </c>
-      <c r="T61">
+      <c r="W61">
         <v>56</v>
       </c>
-      <c r="U61">
+      <c r="X61">
         <v>28.12</v>
       </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>1</v>
-      </c>
-      <c r="X61">
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
         <v>2023</v>
       </c>
       <c r="AB61">
@@ -6976,76 +7525,85 @@
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
         <v>32</v>
       </c>
-      <c r="B62">
+      <c r="E62">
         <v>1003</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
         <v>4</v>
       </c>
-      <c r="E62" t="s">
+      <c r="H62" t="s">
         <v>33</v>
       </c>
-      <c r="F62" t="s">
+      <c r="I62" t="s">
         <v>34</v>
       </c>
-      <c r="G62">
+      <c r="J62">
         <v>60.006</v>
       </c>
-      <c r="H62">
+      <c r="K62">
         <v>9</v>
       </c>
-      <c r="I62" t="s">
+      <c r="L62" t="s">
         <v>35</v>
       </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <v>7</v>
-      </c>
-      <c r="L62">
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>7</v>
+      </c>
+      <c r="O62">
         <v>-1263536832</v>
       </c>
-      <c r="M62" t="s">
+      <c r="P62" t="s">
         <v>36</v>
       </c>
-      <c r="N62" t="s">
-        <v>37</v>
-      </c>
-      <c r="O62" t="s">
-        <v>37</v>
-      </c>
-      <c r="P62" s="1">
+      <c r="Q62" t="s">
+        <v>37</v>
+      </c>
+      <c r="R62" t="s">
+        <v>37</v>
+      </c>
+      <c r="S62" s="1">
         <v>43809</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="T62" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S62" t="s">
+      <c r="V62" t="s">
         <v>38</v>
       </c>
-      <c r="T62">
+      <c r="W62">
         <v>57</v>
       </c>
-      <c r="U62">
+      <c r="X62">
         <v>25.6</v>
       </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>1</v>
-      </c>
-      <c r="X62">
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>1</v>
+      </c>
+      <c r="AA62">
         <v>2507</v>
       </c>
       <c r="AB62">
@@ -7074,76 +7632,85 @@
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
         <v>32</v>
       </c>
-      <c r="B63">
+      <c r="E63">
         <v>1003</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
         <v>4</v>
       </c>
-      <c r="E63" t="s">
+      <c r="H63" t="s">
         <v>33</v>
       </c>
-      <c r="F63" t="s">
+      <c r="I63" t="s">
         <v>34</v>
       </c>
-      <c r="G63">
+      <c r="J63">
         <v>60.006</v>
       </c>
-      <c r="H63">
+      <c r="K63">
         <v>9</v>
       </c>
-      <c r="I63" t="s">
+      <c r="L63" t="s">
         <v>35</v>
       </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <v>7</v>
-      </c>
-      <c r="L63">
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>7</v>
+      </c>
+      <c r="O63">
         <v>-1263536832</v>
       </c>
-      <c r="M63" t="s">
+      <c r="P63" t="s">
         <v>36</v>
       </c>
-      <c r="N63" t="s">
-        <v>37</v>
-      </c>
-      <c r="O63" t="s">
-        <v>37</v>
-      </c>
-      <c r="P63" s="1">
+      <c r="Q63" t="s">
+        <v>37</v>
+      </c>
+      <c r="R63" t="s">
+        <v>37</v>
+      </c>
+      <c r="S63" s="1">
         <v>43809</v>
       </c>
-      <c r="Q63" s="2">
+      <c r="T63" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R63" s="3">
+      <c r="U63" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S63" t="s">
+      <c r="V63" t="s">
         <v>38</v>
       </c>
-      <c r="T63">
+      <c r="W63">
         <v>58</v>
       </c>
-      <c r="U63">
+      <c r="X63">
         <v>25.6</v>
       </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>1</v>
-      </c>
-      <c r="X63">
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>1</v>
+      </c>
+      <c r="AA63">
         <v>263</v>
       </c>
       <c r="AB63">
@@ -7172,76 +7739,85 @@
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
         <v>32</v>
       </c>
-      <c r="B64">
+      <c r="E64">
         <v>1003</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
         <v>4</v>
       </c>
-      <c r="E64" t="s">
+      <c r="H64" t="s">
         <v>33</v>
       </c>
-      <c r="F64" t="s">
+      <c r="I64" t="s">
         <v>34</v>
       </c>
-      <c r="G64">
+      <c r="J64">
         <v>60.006</v>
       </c>
-      <c r="H64">
+      <c r="K64">
         <v>9</v>
       </c>
-      <c r="I64" t="s">
+      <c r="L64" t="s">
         <v>35</v>
       </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>7</v>
-      </c>
-      <c r="L64">
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>7</v>
+      </c>
+      <c r="O64">
         <v>-1263536832</v>
       </c>
-      <c r="M64" t="s">
+      <c r="P64" t="s">
         <v>36</v>
       </c>
-      <c r="N64" t="s">
-        <v>37</v>
-      </c>
-      <c r="O64" t="s">
-        <v>37</v>
-      </c>
-      <c r="P64" s="1">
+      <c r="Q64" t="s">
+        <v>37</v>
+      </c>
+      <c r="R64" t="s">
+        <v>37</v>
+      </c>
+      <c r="S64" s="1">
         <v>43809</v>
       </c>
-      <c r="Q64" s="2">
+      <c r="T64" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R64" s="3">
+      <c r="U64" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S64" t="s">
+      <c r="V64" t="s">
         <v>38</v>
       </c>
-      <c r="T64">
+      <c r="W64">
         <v>59</v>
       </c>
-      <c r="U64">
+      <c r="X64">
         <v>28.12</v>
       </c>
-      <c r="V64">
+      <c r="Y64">
         <v>2</v>
       </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
         <v>0</v>
       </c>
       <c r="AB64">
@@ -7270,76 +7846,85 @@
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65" t="s">
         <v>32</v>
       </c>
-      <c r="B65">
+      <c r="E65">
         <v>1003</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
         <v>4</v>
       </c>
-      <c r="E65" t="s">
+      <c r="H65" t="s">
         <v>33</v>
       </c>
-      <c r="F65" t="s">
+      <c r="I65" t="s">
         <v>34</v>
       </c>
-      <c r="G65">
+      <c r="J65">
         <v>60.006</v>
       </c>
-      <c r="H65">
+      <c r="K65">
         <v>9</v>
       </c>
-      <c r="I65" t="s">
+      <c r="L65" t="s">
         <v>35</v>
       </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="K65">
-        <v>7</v>
-      </c>
-      <c r="L65">
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>7</v>
+      </c>
+      <c r="O65">
         <v>-1263536832</v>
       </c>
-      <c r="M65" t="s">
+      <c r="P65" t="s">
         <v>36</v>
       </c>
-      <c r="N65" t="s">
-        <v>37</v>
-      </c>
-      <c r="O65" t="s">
-        <v>37</v>
-      </c>
-      <c r="P65" s="1">
+      <c r="Q65" t="s">
+        <v>37</v>
+      </c>
+      <c r="R65" t="s">
+        <v>37</v>
+      </c>
+      <c r="S65" s="1">
         <v>43809</v>
       </c>
-      <c r="Q65" s="2">
+      <c r="T65" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R65" s="3">
+      <c r="U65" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S65" t="s">
+      <c r="V65" t="s">
         <v>38</v>
       </c>
-      <c r="T65">
+      <c r="W65">
         <v>60</v>
       </c>
-      <c r="U65">
+      <c r="X65">
         <v>19.329999999999998</v>
       </c>
-      <c r="V65">
+      <c r="Y65">
         <v>2</v>
       </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
         <v>8340</v>
       </c>
       <c r="AB65">
@@ -7368,76 +7953,85 @@
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
         <v>32</v>
       </c>
-      <c r="B66">
+      <c r="E66">
         <v>1003</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
         <v>4</v>
       </c>
-      <c r="E66" t="s">
+      <c r="H66" t="s">
         <v>33</v>
       </c>
-      <c r="F66" t="s">
+      <c r="I66" t="s">
         <v>34</v>
       </c>
-      <c r="G66">
+      <c r="J66">
         <v>60.006</v>
       </c>
-      <c r="H66">
+      <c r="K66">
         <v>9</v>
       </c>
-      <c r="I66" t="s">
+      <c r="L66" t="s">
         <v>35</v>
       </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>7</v>
-      </c>
-      <c r="L66">
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>7</v>
+      </c>
+      <c r="O66">
         <v>-1263536832</v>
       </c>
-      <c r="M66" t="s">
+      <c r="P66" t="s">
         <v>36</v>
       </c>
-      <c r="N66" t="s">
-        <v>37</v>
-      </c>
-      <c r="O66" t="s">
-        <v>37</v>
-      </c>
-      <c r="P66" s="1">
+      <c r="Q66" t="s">
+        <v>37</v>
+      </c>
+      <c r="R66" t="s">
+        <v>37</v>
+      </c>
+      <c r="S66" s="1">
         <v>43809</v>
       </c>
-      <c r="Q66" s="2">
+      <c r="T66" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S66" t="s">
+      <c r="V66" t="s">
         <v>38</v>
       </c>
-      <c r="T66">
+      <c r="W66">
         <v>61</v>
       </c>
-      <c r="U66">
+      <c r="X66">
         <v>10.53</v>
       </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>1</v>
-      </c>
-      <c r="X66">
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>1</v>
+      </c>
+      <c r="AA66">
         <v>3114</v>
       </c>
       <c r="AB66">
@@ -7466,76 +8060,85 @@
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
         <v>32</v>
       </c>
-      <c r="B67">
+      <c r="E67">
         <v>1003</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
         <v>4</v>
       </c>
-      <c r="E67" t="s">
+      <c r="H67" t="s">
         <v>33</v>
       </c>
-      <c r="F67" t="s">
+      <c r="I67" t="s">
         <v>34</v>
       </c>
-      <c r="G67">
+      <c r="J67">
         <v>60.006</v>
       </c>
-      <c r="H67">
+      <c r="K67">
         <v>9</v>
       </c>
-      <c r="I67" t="s">
+      <c r="L67" t="s">
         <v>35</v>
       </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
-        <v>7</v>
-      </c>
-      <c r="L67">
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>7</v>
+      </c>
+      <c r="O67">
         <v>-1263536832</v>
       </c>
-      <c r="M67" t="s">
+      <c r="P67" t="s">
         <v>36</v>
       </c>
-      <c r="N67" t="s">
-        <v>37</v>
-      </c>
-      <c r="O67" t="s">
-        <v>37</v>
-      </c>
-      <c r="P67" s="1">
+      <c r="Q67" t="s">
+        <v>37</v>
+      </c>
+      <c r="R67" t="s">
+        <v>37</v>
+      </c>
+      <c r="S67" s="1">
         <v>43809</v>
       </c>
-      <c r="Q67" s="2">
+      <c r="T67" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R67" s="3">
+      <c r="U67" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S67" t="s">
+      <c r="V67" t="s">
         <v>38</v>
       </c>
-      <c r="T67">
+      <c r="W67">
         <v>62</v>
       </c>
-      <c r="U67">
+      <c r="X67">
         <v>13.05</v>
       </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>1</v>
-      </c>
-      <c r="X67">
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>1</v>
+      </c>
+      <c r="AA67">
         <v>44</v>
       </c>
       <c r="AB67">
@@ -7564,76 +8167,85 @@
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
         <v>32</v>
       </c>
-      <c r="B68">
+      <c r="E68">
         <v>1003</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
         <v>4</v>
       </c>
-      <c r="E68" t="s">
+      <c r="H68" t="s">
         <v>33</v>
       </c>
-      <c r="F68" t="s">
+      <c r="I68" t="s">
         <v>34</v>
       </c>
-      <c r="G68">
+      <c r="J68">
         <v>60.006</v>
       </c>
-      <c r="H68">
+      <c r="K68">
         <v>9</v>
       </c>
-      <c r="I68" t="s">
+      <c r="L68" t="s">
         <v>35</v>
       </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-      <c r="K68">
-        <v>7</v>
-      </c>
-      <c r="L68">
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>7</v>
+      </c>
+      <c r="O68">
         <v>-1263536832</v>
       </c>
-      <c r="M68" t="s">
+      <c r="P68" t="s">
         <v>36</v>
       </c>
-      <c r="N68" t="s">
-        <v>37</v>
-      </c>
-      <c r="O68" t="s">
-        <v>37</v>
-      </c>
-      <c r="P68" s="1">
+      <c r="Q68" t="s">
+        <v>37</v>
+      </c>
+      <c r="R68" t="s">
+        <v>37</v>
+      </c>
+      <c r="S68" s="1">
         <v>43809</v>
       </c>
-      <c r="Q68" s="2">
+      <c r="T68" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R68" s="3">
+      <c r="U68" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S68" t="s">
+      <c r="V68" t="s">
         <v>38</v>
       </c>
-      <c r="T68">
+      <c r="W68">
         <v>63</v>
       </c>
-      <c r="U68">
+      <c r="X68">
         <v>29.37</v>
       </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>1</v>
-      </c>
-      <c r="X68">
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>1</v>
+      </c>
+      <c r="AA68">
         <v>403</v>
       </c>
       <c r="AB68">
@@ -7662,76 +8274,85 @@
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
         <v>32</v>
       </c>
-      <c r="B69">
+      <c r="E69">
         <v>1003</v>
       </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
         <v>4</v>
       </c>
-      <c r="E69" t="s">
+      <c r="H69" t="s">
         <v>33</v>
       </c>
-      <c r="F69" t="s">
+      <c r="I69" t="s">
         <v>34</v>
       </c>
-      <c r="G69">
+      <c r="J69">
         <v>60.006</v>
       </c>
-      <c r="H69">
+      <c r="K69">
         <v>9</v>
       </c>
-      <c r="I69" t="s">
+      <c r="L69" t="s">
         <v>35</v>
       </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69">
-        <v>7</v>
-      </c>
-      <c r="L69">
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>7</v>
+      </c>
+      <c r="O69">
         <v>-1263536832</v>
       </c>
-      <c r="M69" t="s">
+      <c r="P69" t="s">
         <v>36</v>
       </c>
-      <c r="N69" t="s">
-        <v>37</v>
-      </c>
-      <c r="O69" t="s">
-        <v>37</v>
-      </c>
-      <c r="P69" s="1">
+      <c r="Q69" t="s">
+        <v>37</v>
+      </c>
+      <c r="R69" t="s">
+        <v>37</v>
+      </c>
+      <c r="S69" s="1">
         <v>43809</v>
       </c>
-      <c r="Q69" s="2">
+      <c r="T69" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R69" s="3">
+      <c r="U69" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S69" t="s">
+      <c r="V69" t="s">
         <v>38</v>
       </c>
-      <c r="T69">
+      <c r="W69">
         <v>64</v>
       </c>
-      <c r="U69">
+      <c r="X69">
         <v>9.2799999999999994</v>
       </c>
-      <c r="V69">
+      <c r="Y69">
         <v>2</v>
       </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69">
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
         <v>21982</v>
       </c>
       <c r="AB69">
@@ -7760,76 +8381,85 @@
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
         <v>32</v>
       </c>
-      <c r="B70">
+      <c r="E70">
         <v>1003</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
         <v>4</v>
       </c>
-      <c r="E70" t="s">
+      <c r="H70" t="s">
         <v>33</v>
       </c>
-      <c r="F70" t="s">
+      <c r="I70" t="s">
         <v>34</v>
       </c>
-      <c r="G70">
+      <c r="J70">
         <v>60.006</v>
       </c>
-      <c r="H70">
+      <c r="K70">
         <v>9</v>
       </c>
-      <c r="I70" t="s">
+      <c r="L70" t="s">
         <v>35</v>
       </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70">
-        <v>7</v>
-      </c>
-      <c r="L70">
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>7</v>
+      </c>
+      <c r="O70">
         <v>-1263536832</v>
       </c>
-      <c r="M70" t="s">
+      <c r="P70" t="s">
         <v>36</v>
       </c>
-      <c r="N70" t="s">
-        <v>37</v>
-      </c>
-      <c r="O70" t="s">
-        <v>37</v>
-      </c>
-      <c r="P70" s="1">
+      <c r="Q70" t="s">
+        <v>37</v>
+      </c>
+      <c r="R70" t="s">
+        <v>37</v>
+      </c>
+      <c r="S70" s="1">
         <v>43809</v>
       </c>
-      <c r="Q70" s="2">
+      <c r="T70" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R70" s="3">
+      <c r="U70" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S70" t="s">
+      <c r="V70" t="s">
         <v>38</v>
       </c>
-      <c r="T70">
+      <c r="W70">
         <v>65</v>
       </c>
-      <c r="U70">
+      <c r="X70">
         <v>13.05</v>
       </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>1</v>
-      </c>
-      <c r="X70">
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>1</v>
+      </c>
+      <c r="AA70">
         <v>515</v>
       </c>
       <c r="AB70">
@@ -7858,76 +8488,85 @@
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
         <v>32</v>
       </c>
-      <c r="B71">
+      <c r="E71">
         <v>1003</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
         <v>4</v>
       </c>
-      <c r="E71" t="s">
+      <c r="H71" t="s">
         <v>33</v>
       </c>
-      <c r="F71" t="s">
+      <c r="I71" t="s">
         <v>34</v>
       </c>
-      <c r="G71">
+      <c r="J71">
         <v>60.006</v>
       </c>
-      <c r="H71">
+      <c r="K71">
         <v>9</v>
       </c>
-      <c r="I71" t="s">
+      <c r="L71" t="s">
         <v>35</v>
       </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="K71">
-        <v>7</v>
-      </c>
-      <c r="L71">
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>7</v>
+      </c>
+      <c r="O71">
         <v>-1263536832</v>
       </c>
-      <c r="M71" t="s">
+      <c r="P71" t="s">
         <v>36</v>
       </c>
-      <c r="N71" t="s">
-        <v>37</v>
-      </c>
-      <c r="O71" t="s">
-        <v>37</v>
-      </c>
-      <c r="P71" s="1">
+      <c r="Q71" t="s">
+        <v>37</v>
+      </c>
+      <c r="R71" t="s">
+        <v>37</v>
+      </c>
+      <c r="S71" s="1">
         <v>43809</v>
       </c>
-      <c r="Q71" s="2">
+      <c r="T71" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R71" s="3">
+      <c r="U71" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S71" t="s">
+      <c r="V71" t="s">
         <v>38</v>
       </c>
-      <c r="T71">
+      <c r="W71">
         <v>66</v>
       </c>
-      <c r="U71">
+      <c r="X71">
         <v>10.53</v>
       </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>1</v>
-      </c>
-      <c r="X71">
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>1</v>
+      </c>
+      <c r="AA71">
         <v>1343</v>
       </c>
       <c r="AB71">
@@ -7956,76 +8595,85 @@
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
         <v>32</v>
       </c>
-      <c r="B72">
+      <c r="E72">
         <v>1003</v>
       </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
         <v>4</v>
       </c>
-      <c r="E72" t="s">
+      <c r="H72" t="s">
         <v>33</v>
       </c>
-      <c r="F72" t="s">
+      <c r="I72" t="s">
         <v>34</v>
       </c>
-      <c r="G72">
+      <c r="J72">
         <v>60.006</v>
       </c>
-      <c r="H72">
+      <c r="K72">
         <v>9</v>
       </c>
-      <c r="I72" t="s">
+      <c r="L72" t="s">
         <v>35</v>
       </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <v>7</v>
-      </c>
-      <c r="L72">
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>7</v>
+      </c>
+      <c r="O72">
         <v>-1263536832</v>
       </c>
-      <c r="M72" t="s">
+      <c r="P72" t="s">
         <v>36</v>
       </c>
-      <c r="N72" t="s">
-        <v>37</v>
-      </c>
-      <c r="O72" t="s">
-        <v>37</v>
-      </c>
-      <c r="P72" s="1">
+      <c r="Q72" t="s">
+        <v>37</v>
+      </c>
+      <c r="R72" t="s">
+        <v>37</v>
+      </c>
+      <c r="S72" s="1">
         <v>43809</v>
       </c>
-      <c r="Q72" s="2">
+      <c r="T72" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S72" t="s">
+      <c r="V72" t="s">
         <v>38</v>
       </c>
-      <c r="T72">
+      <c r="W72">
         <v>67</v>
       </c>
-      <c r="U72">
+      <c r="X72">
         <v>21.84</v>
       </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>1</v>
-      </c>
-      <c r="X72">
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>1</v>
+      </c>
+      <c r="AA72">
         <v>324</v>
       </c>
       <c r="AB72">
@@ -8054,76 +8702,85 @@
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
         <v>32</v>
       </c>
-      <c r="B73">
+      <c r="E73">
         <v>1003</v>
       </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
         <v>4</v>
       </c>
-      <c r="E73" t="s">
+      <c r="H73" t="s">
         <v>33</v>
       </c>
-      <c r="F73" t="s">
+      <c r="I73" t="s">
         <v>34</v>
       </c>
-      <c r="G73">
+      <c r="J73">
         <v>60.006</v>
       </c>
-      <c r="H73">
+      <c r="K73">
         <v>9</v>
       </c>
-      <c r="I73" t="s">
+      <c r="L73" t="s">
         <v>35</v>
       </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73">
-        <v>7</v>
-      </c>
-      <c r="L73">
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>7</v>
+      </c>
+      <c r="O73">
         <v>-1263536832</v>
       </c>
-      <c r="M73" t="s">
+      <c r="P73" t="s">
         <v>36</v>
       </c>
-      <c r="N73" t="s">
-        <v>37</v>
-      </c>
-      <c r="O73" t="s">
-        <v>37</v>
-      </c>
-      <c r="P73" s="1">
+      <c r="Q73" t="s">
+        <v>37</v>
+      </c>
+      <c r="R73" t="s">
+        <v>37</v>
+      </c>
+      <c r="S73" s="1">
         <v>43809</v>
       </c>
-      <c r="Q73" s="2">
+      <c r="T73" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R73" s="3">
+      <c r="U73" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S73" t="s">
+      <c r="V73" t="s">
         <v>38</v>
       </c>
-      <c r="T73">
+      <c r="W73">
         <v>68</v>
       </c>
-      <c r="U73">
+      <c r="X73">
         <v>21.84</v>
       </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>1</v>
-      </c>
-      <c r="X73">
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
+      </c>
+      <c r="AA73">
         <v>4479</v>
       </c>
       <c r="AB73">
@@ -8152,76 +8809,85 @@
       </c>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
         <v>32</v>
       </c>
-      <c r="B74">
+      <c r="E74">
         <v>1003</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
         <v>4</v>
       </c>
-      <c r="E74" t="s">
+      <c r="H74" t="s">
         <v>33</v>
       </c>
-      <c r="F74" t="s">
+      <c r="I74" t="s">
         <v>34</v>
       </c>
-      <c r="G74">
+      <c r="J74">
         <v>60.006</v>
       </c>
-      <c r="H74">
+      <c r="K74">
         <v>9</v>
       </c>
-      <c r="I74" t="s">
+      <c r="L74" t="s">
         <v>35</v>
       </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74">
-        <v>7</v>
-      </c>
-      <c r="L74">
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>7</v>
+      </c>
+      <c r="O74">
         <v>-1263536832</v>
       </c>
-      <c r="M74" t="s">
+      <c r="P74" t="s">
         <v>36</v>
       </c>
-      <c r="N74" t="s">
-        <v>37</v>
-      </c>
-      <c r="O74" t="s">
-        <v>37</v>
-      </c>
-      <c r="P74" s="1">
+      <c r="Q74" t="s">
+        <v>37</v>
+      </c>
+      <c r="R74" t="s">
+        <v>37</v>
+      </c>
+      <c r="S74" s="1">
         <v>43809</v>
       </c>
-      <c r="Q74" s="2">
+      <c r="T74" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R74" s="3">
+      <c r="U74" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S74" t="s">
+      <c r="V74" t="s">
         <v>38</v>
       </c>
-      <c r="T74">
+      <c r="W74">
         <v>69</v>
       </c>
-      <c r="U74">
+      <c r="X74">
         <v>26.86</v>
       </c>
-      <c r="V74">
-        <v>1</v>
-      </c>
-      <c r="W74">
-        <v>1</v>
-      </c>
-      <c r="X74">
+      <c r="Y74">
+        <v>1</v>
+      </c>
+      <c r="Z74">
+        <v>1</v>
+      </c>
+      <c r="AA74">
         <v>1904</v>
       </c>
       <c r="AB74">
@@ -8250,76 +8916,85 @@
       </c>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
         <v>32</v>
       </c>
-      <c r="B75">
+      <c r="E75">
         <v>1003</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
         <v>4</v>
       </c>
-      <c r="E75" t="s">
+      <c r="H75" t="s">
         <v>33</v>
       </c>
-      <c r="F75" t="s">
+      <c r="I75" t="s">
         <v>34</v>
       </c>
-      <c r="G75">
+      <c r="J75">
         <v>60.006</v>
       </c>
-      <c r="H75">
+      <c r="K75">
         <v>9</v>
       </c>
-      <c r="I75" t="s">
+      <c r="L75" t="s">
         <v>35</v>
       </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75">
-        <v>7</v>
-      </c>
-      <c r="L75">
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>7</v>
+      </c>
+      <c r="O75">
         <v>-1263536832</v>
       </c>
-      <c r="M75" t="s">
+      <c r="P75" t="s">
         <v>36</v>
       </c>
-      <c r="N75" t="s">
-        <v>37</v>
-      </c>
-      <c r="O75" t="s">
-        <v>37</v>
-      </c>
-      <c r="P75" s="1">
+      <c r="Q75" t="s">
+        <v>37</v>
+      </c>
+      <c r="R75" t="s">
+        <v>37</v>
+      </c>
+      <c r="S75" s="1">
         <v>43809</v>
       </c>
-      <c r="Q75" s="2">
+      <c r="T75" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R75" s="3">
+      <c r="U75" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S75" t="s">
+      <c r="V75" t="s">
         <v>38</v>
       </c>
-      <c r="T75">
+      <c r="W75">
         <v>70</v>
       </c>
-      <c r="U75">
+      <c r="X75">
         <v>18.07</v>
       </c>
-      <c r="V75">
-        <v>1</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="X75">
+      <c r="Y75">
+        <v>1</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
         <v>985</v>
       </c>
       <c r="AB75">
@@ -8348,76 +9023,85 @@
       </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
         <v>32</v>
       </c>
-      <c r="B76">
+      <c r="E76">
         <v>1003</v>
       </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
         <v>4</v>
       </c>
-      <c r="E76" t="s">
+      <c r="H76" t="s">
         <v>33</v>
       </c>
-      <c r="F76" t="s">
+      <c r="I76" t="s">
         <v>34</v>
       </c>
-      <c r="G76">
+      <c r="J76">
         <v>60.006</v>
       </c>
-      <c r="H76">
+      <c r="K76">
         <v>9</v>
       </c>
-      <c r="I76" t="s">
+      <c r="L76" t="s">
         <v>35</v>
       </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="K76">
-        <v>7</v>
-      </c>
-      <c r="L76">
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>7</v>
+      </c>
+      <c r="O76">
         <v>-1263536832</v>
       </c>
-      <c r="M76" t="s">
+      <c r="P76" t="s">
         <v>36</v>
       </c>
-      <c r="N76" t="s">
-        <v>37</v>
-      </c>
-      <c r="O76" t="s">
-        <v>37</v>
-      </c>
-      <c r="P76" s="1">
+      <c r="Q76" t="s">
+        <v>37</v>
+      </c>
+      <c r="R76" t="s">
+        <v>37</v>
+      </c>
+      <c r="S76" s="1">
         <v>43809</v>
       </c>
-      <c r="Q76" s="2">
+      <c r="T76" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S76" t="s">
+      <c r="V76" t="s">
         <v>38</v>
       </c>
-      <c r="T76">
+      <c r="W76">
         <v>71</v>
       </c>
-      <c r="U76">
+      <c r="X76">
         <v>29.37</v>
       </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>1</v>
-      </c>
-      <c r="X76">
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>1</v>
+      </c>
+      <c r="AA76">
         <v>295</v>
       </c>
       <c r="AB76">
@@ -8446,76 +9130,85 @@
       </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
         <v>32</v>
       </c>
-      <c r="B77">
+      <c r="E77">
         <v>1003</v>
       </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
         <v>4</v>
       </c>
-      <c r="E77" t="s">
+      <c r="H77" t="s">
         <v>33</v>
       </c>
-      <c r="F77" t="s">
+      <c r="I77" t="s">
         <v>34</v>
       </c>
-      <c r="G77">
+      <c r="J77">
         <v>60.006</v>
       </c>
-      <c r="H77">
+      <c r="K77">
         <v>9</v>
       </c>
-      <c r="I77" t="s">
+      <c r="L77" t="s">
         <v>35</v>
       </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77">
-        <v>7</v>
-      </c>
-      <c r="L77">
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>7</v>
+      </c>
+      <c r="O77">
         <v>-1263536832</v>
       </c>
-      <c r="M77" t="s">
+      <c r="P77" t="s">
         <v>36</v>
       </c>
-      <c r="N77" t="s">
-        <v>37</v>
-      </c>
-      <c r="O77" t="s">
-        <v>37</v>
-      </c>
-      <c r="P77" s="1">
+      <c r="Q77" t="s">
+        <v>37</v>
+      </c>
+      <c r="R77" t="s">
+        <v>37</v>
+      </c>
+      <c r="S77" s="1">
         <v>43809</v>
       </c>
-      <c r="Q77" s="2">
+      <c r="T77" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R77" s="3">
+      <c r="U77" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S77" t="s">
+      <c r="V77" t="s">
         <v>38</v>
       </c>
-      <c r="T77">
+      <c r="W77">
         <v>72</v>
       </c>
-      <c r="U77">
+      <c r="X77">
         <v>20.58</v>
       </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>1</v>
-      </c>
-      <c r="X77">
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>1</v>
+      </c>
+      <c r="AA77">
         <v>327</v>
       </c>
       <c r="AB77">
@@ -8544,76 +9237,85 @@
       </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
         <v>32</v>
       </c>
-      <c r="B78">
+      <c r="E78">
         <v>1003</v>
       </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
         <v>4</v>
       </c>
-      <c r="E78" t="s">
+      <c r="H78" t="s">
         <v>33</v>
       </c>
-      <c r="F78" t="s">
+      <c r="I78" t="s">
         <v>34</v>
       </c>
-      <c r="G78">
+      <c r="J78">
         <v>60.006</v>
       </c>
-      <c r="H78">
+      <c r="K78">
         <v>9</v>
       </c>
-      <c r="I78" t="s">
+      <c r="L78" t="s">
         <v>35</v>
       </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78">
-        <v>7</v>
-      </c>
-      <c r="L78">
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>7</v>
+      </c>
+      <c r="O78">
         <v>-1263536832</v>
       </c>
-      <c r="M78" t="s">
+      <c r="P78" t="s">
         <v>36</v>
       </c>
-      <c r="N78" t="s">
-        <v>37</v>
-      </c>
-      <c r="O78" t="s">
-        <v>37</v>
-      </c>
-      <c r="P78" s="1">
+      <c r="Q78" t="s">
+        <v>37</v>
+      </c>
+      <c r="R78" t="s">
+        <v>37</v>
+      </c>
+      <c r="S78" s="1">
         <v>43809</v>
       </c>
-      <c r="Q78" s="2">
+      <c r="T78" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R78" s="3">
+      <c r="U78" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S78" t="s">
+      <c r="V78" t="s">
         <v>38</v>
       </c>
-      <c r="T78">
+      <c r="W78">
         <v>73</v>
       </c>
-      <c r="U78">
+      <c r="X78">
         <v>14.3</v>
       </c>
-      <c r="V78">
-        <v>1</v>
-      </c>
-      <c r="W78">
-        <v>1</v>
-      </c>
-      <c r="X78">
+      <c r="Y78">
+        <v>1</v>
+      </c>
+      <c r="Z78">
+        <v>1</v>
+      </c>
+      <c r="AA78">
         <v>610</v>
       </c>
       <c r="AB78">
@@ -8642,76 +9344,85 @@
       </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
         <v>32</v>
       </c>
-      <c r="B79">
+      <c r="E79">
         <v>1003</v>
       </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
         <v>4</v>
       </c>
-      <c r="E79" t="s">
+      <c r="H79" t="s">
         <v>33</v>
       </c>
-      <c r="F79" t="s">
+      <c r="I79" t="s">
         <v>34</v>
       </c>
-      <c r="G79">
+      <c r="J79">
         <v>60.006</v>
       </c>
-      <c r="H79">
+      <c r="K79">
         <v>9</v>
       </c>
-      <c r="I79" t="s">
+      <c r="L79" t="s">
         <v>35</v>
       </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79">
-        <v>7</v>
-      </c>
-      <c r="L79">
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>7</v>
+      </c>
+      <c r="O79">
         <v>-1263536832</v>
       </c>
-      <c r="M79" t="s">
+      <c r="P79" t="s">
         <v>36</v>
       </c>
-      <c r="N79" t="s">
-        <v>37</v>
-      </c>
-      <c r="O79" t="s">
-        <v>37</v>
-      </c>
-      <c r="P79" s="1">
+      <c r="Q79" t="s">
+        <v>37</v>
+      </c>
+      <c r="R79" t="s">
+        <v>37</v>
+      </c>
+      <c r="S79" s="1">
         <v>43809</v>
       </c>
-      <c r="Q79" s="2">
+      <c r="T79" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R79" s="3">
+      <c r="U79" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S79" t="s">
+      <c r="V79" t="s">
         <v>38</v>
       </c>
-      <c r="T79">
+      <c r="W79">
         <v>74</v>
       </c>
-      <c r="U79">
+      <c r="X79">
         <v>19.329999999999998</v>
       </c>
-      <c r="V79">
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <v>1</v>
-      </c>
-      <c r="X79">
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>1</v>
+      </c>
+      <c r="AA79">
         <v>16</v>
       </c>
       <c r="AB79">
@@ -8740,76 +9451,85 @@
       </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
         <v>32</v>
       </c>
-      <c r="B80">
+      <c r="E80">
         <v>1003</v>
       </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
         <v>4</v>
       </c>
-      <c r="E80" t="s">
+      <c r="H80" t="s">
         <v>33</v>
       </c>
-      <c r="F80" t="s">
+      <c r="I80" t="s">
         <v>34</v>
       </c>
-      <c r="G80">
+      <c r="J80">
         <v>60.006</v>
       </c>
-      <c r="H80">
+      <c r="K80">
         <v>9</v>
       </c>
-      <c r="I80" t="s">
+      <c r="L80" t="s">
         <v>35</v>
       </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80">
-        <v>7</v>
-      </c>
-      <c r="L80">
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>7</v>
+      </c>
+      <c r="O80">
         <v>-1263536832</v>
       </c>
-      <c r="M80" t="s">
+      <c r="P80" t="s">
         <v>36</v>
       </c>
-      <c r="N80" t="s">
-        <v>37</v>
-      </c>
-      <c r="O80" t="s">
-        <v>37</v>
-      </c>
-      <c r="P80" s="1">
+      <c r="Q80" t="s">
+        <v>37</v>
+      </c>
+      <c r="R80" t="s">
+        <v>37</v>
+      </c>
+      <c r="S80" s="1">
         <v>43809</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R80" s="3">
+      <c r="U80" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S80" t="s">
+      <c r="V80" t="s">
         <v>38</v>
       </c>
-      <c r="T80">
+      <c r="W80">
         <v>75</v>
       </c>
-      <c r="U80">
+      <c r="X80">
         <v>24.35</v>
       </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>1</v>
-      </c>
-      <c r="X80">
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>1</v>
+      </c>
+      <c r="AA80">
         <v>461</v>
       </c>
       <c r="AB80">
@@ -8838,76 +9558,85 @@
       </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
         <v>32</v>
       </c>
-      <c r="B81">
+      <c r="E81">
         <v>1003</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
         <v>4</v>
       </c>
-      <c r="E81" t="s">
+      <c r="H81" t="s">
         <v>33</v>
       </c>
-      <c r="F81" t="s">
+      <c r="I81" t="s">
         <v>34</v>
       </c>
-      <c r="G81">
+      <c r="J81">
         <v>60.006</v>
       </c>
-      <c r="H81">
+      <c r="K81">
         <v>9</v>
       </c>
-      <c r="I81" t="s">
+      <c r="L81" t="s">
         <v>35</v>
       </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81">
-        <v>7</v>
-      </c>
-      <c r="L81">
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>7</v>
+      </c>
+      <c r="O81">
         <v>-1263536832</v>
       </c>
-      <c r="M81" t="s">
+      <c r="P81" t="s">
         <v>36</v>
       </c>
-      <c r="N81" t="s">
-        <v>37</v>
-      </c>
-      <c r="O81" t="s">
-        <v>37</v>
-      </c>
-      <c r="P81" s="1">
+      <c r="Q81" t="s">
+        <v>37</v>
+      </c>
+      <c r="R81" t="s">
+        <v>37</v>
+      </c>
+      <c r="S81" s="1">
         <v>43809</v>
       </c>
-      <c r="Q81" s="2">
+      <c r="T81" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S81" t="s">
+      <c r="V81" t="s">
         <v>38</v>
       </c>
-      <c r="T81">
+      <c r="W81">
         <v>76</v>
       </c>
-      <c r="U81">
+      <c r="X81">
         <v>13.05</v>
       </c>
-      <c r="V81">
-        <v>0</v>
-      </c>
-      <c r="W81">
-        <v>1</v>
-      </c>
-      <c r="X81">
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>1</v>
+      </c>
+      <c r="AA81">
         <v>698</v>
       </c>
       <c r="AB81">
@@ -8936,76 +9665,85 @@
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
         <v>32</v>
       </c>
-      <c r="B82">
+      <c r="E82">
         <v>1003</v>
       </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
         <v>4</v>
       </c>
-      <c r="E82" t="s">
+      <c r="H82" t="s">
         <v>33</v>
       </c>
-      <c r="F82" t="s">
+      <c r="I82" t="s">
         <v>34</v>
       </c>
-      <c r="G82">
+      <c r="J82">
         <v>60.006</v>
       </c>
-      <c r="H82">
+      <c r="K82">
         <v>9</v>
       </c>
-      <c r="I82" t="s">
+      <c r="L82" t="s">
         <v>35</v>
       </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82">
-        <v>7</v>
-      </c>
-      <c r="L82">
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>7</v>
+      </c>
+      <c r="O82">
         <v>-1263536832</v>
       </c>
-      <c r="M82" t="s">
+      <c r="P82" t="s">
         <v>36</v>
       </c>
-      <c r="N82" t="s">
-        <v>37</v>
-      </c>
-      <c r="O82" t="s">
-        <v>37</v>
-      </c>
-      <c r="P82" s="1">
+      <c r="Q82" t="s">
+        <v>37</v>
+      </c>
+      <c r="R82" t="s">
+        <v>37</v>
+      </c>
+      <c r="S82" s="1">
         <v>43809</v>
       </c>
-      <c r="Q82" s="2">
+      <c r="T82" s="2">
         <v>43809.784548611111</v>
       </c>
-      <c r="R82" s="3">
+      <c r="U82" s="3">
         <v>0.57621527777777781</v>
       </c>
-      <c r="S82" t="s">
+      <c r="V82" t="s">
         <v>38</v>
       </c>
-      <c r="T82">
+      <c r="W82">
         <v>77</v>
       </c>
-      <c r="U82">
+      <c r="X82">
         <v>20.58</v>
       </c>
-      <c r="V82">
-        <v>1</v>
-      </c>
-      <c r="W82">
-        <v>1</v>
-      </c>
-      <c r="X82">
+      <c r="Y82">
+        <v>1</v>
+      </c>
+      <c r="Z82">
+        <v>1</v>
+      </c>
+      <c r="AA82">
         <v>1899</v>
       </c>
       <c r="AB82">
